--- a/cashflow2022.xlsx
+++ b/cashflow2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Documents\Metaloplast local\Financiare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4416CDB-3F5A-408A-B571-6DC64BDCF475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49AF2CF-0044-4C9E-9A12-13B1F6053BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,11 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="cyaby claudiu" sheetId="8" r:id="rId7"/>
+    <sheet name="manager" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cashflow!$A$1:$F$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cashflow!$A$1:$F$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="131">
   <si>
     <t>data</t>
   </si>
@@ -317,6 +318,123 @@
   <si>
     <t>f.1070332991/17.06</t>
   </si>
+  <si>
+    <t>SOLF4531/06.07.22</t>
+  </si>
+  <si>
+    <t>effect paint bylcor</t>
+  </si>
+  <si>
+    <t>merum</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>venituri</t>
+  </si>
+  <si>
+    <t>cheltuieli</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>iun</t>
+  </si>
+  <si>
+    <t>iul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>impr asoc</t>
+  </si>
+  <si>
+    <t>imprum</t>
+  </si>
+  <si>
+    <t>retur</t>
+  </si>
+  <si>
+    <t>cyaby 3x2,5</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>tambur</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>rasc</t>
+  </si>
+  <si>
+    <t>achiz</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>f.1070352975, 1070352977</t>
+  </si>
+  <si>
+    <t>solf4747/06.10.22</t>
+  </si>
+  <si>
+    <t>amex</t>
+  </si>
+  <si>
+    <t>east delivery service</t>
+  </si>
+  <si>
+    <t>destine</t>
+  </si>
+  <si>
+    <t>kessel serv</t>
+  </si>
+  <si>
+    <t>f.1070364274/31.10.22</t>
+  </si>
+  <si>
+    <t>f.1070365756/07.11.22</t>
+  </si>
+  <si>
+    <t>1070366778/11.11.2022</t>
+  </si>
+  <si>
+    <t>salariu nov2022</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +446,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +461,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,24 +487,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -421,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -442,20 +535,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,20 +883,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC280"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AQ460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281:XFD285"/>
+      <pane ySplit="1" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H457" sqref="H457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.54296875" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.54296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.26953125" customWidth="1"/>
@@ -819,9 +906,15 @@
     <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" customWidth="1"/>
+    <col min="31" max="31" width="9.54296875" customWidth="1"/>
+    <col min="32" max="32" width="7.1796875" customWidth="1"/>
+    <col min="35" max="35" width="9.81640625" customWidth="1"/>
+    <col min="37" max="37" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -845,15 +938,15 @@
       </c>
       <c r="L1" s="2"/>
       <c r="M1">
-        <v>19.702999999999999</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="N1">
         <f>SUM(N3:N28)</f>
-        <v>3736.191360826675</v>
+        <v>3735.409377263818</v>
       </c>
       <c r="O1" s="9">
         <f>M1*N1</f>
-        <v>73614.178382367973</v>
+        <v>75268.498951865928</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -863,10 +956,16 @@
       </c>
       <c r="V1" s="3">
         <f>72163.3-2500+SUM(V2:V22)</f>
-        <v>49663.3</v>
+        <v>14663.300000000003</v>
       </c>
       <c r="W1" s="1">
         <v>44668</v>
+      </c>
+      <c r="X1" s="18">
+        <v>32855.300000000003</v>
+      </c>
+      <c r="Y1" s="22">
+        <v>44864</v>
       </c>
       <c r="Z1">
         <v>3734.6447779700002</v>
@@ -879,8 +978,23 @@
         <f>Z1-AA1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AH1">
+        <v>19.396000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>19.509</v>
+      </c>
+      <c r="AL1">
+        <v>19.547000000000001</v>
+      </c>
+      <c r="AN1">
+        <v>19.689</v>
+      </c>
+      <c r="AP1">
+        <v>19.925999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -920,8 +1034,32 @@
         <f>AA2*AB2</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AG2" s="13">
+        <f>SUM(AH2:AP2)</f>
+        <v>3735.4093772663409</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(AH3:AH4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(AJ3:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f>SUM(AL3:AL10)</f>
+        <v>1201.9612630040458</v>
+      </c>
+      <c r="AN2">
+        <f>SUM(AN3:AN10)</f>
+        <v>2031.591243841739</v>
+      </c>
+      <c r="AP2">
+        <f>SUM(AP3:AP10)</f>
+        <v>501.85687042055611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44565</v>
       </c>
@@ -965,8 +1103,39 @@
       <c r="AC3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AH3">
+        <v>1174.7145391043391</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ3">
+        <v>1025.1678712389153</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL3">
+        <v>1534.7623676267458</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN3">
+        <f>N5</f>
+        <v>2031.591243841739</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>44686</v>
+      </c>
+      <c r="AP3">
+        <v>501.85687042055611</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44565</v>
       </c>
@@ -987,7 +1156,7 @@
       <c r="G4" s="3">
         <v>54576.62</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <f>G4-F4</f>
         <v>0</v>
       </c>
@@ -1019,6 +1188,7 @@
         <v>44714</v>
       </c>
       <c r="Z4">
+        <f>N4</f>
         <v>-2030.0446609825415</v>
       </c>
       <c r="AA4">
@@ -1031,8 +1201,30 @@
         <f>AA4*AB4</f>
         <v>22784.763200467762</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF4" s="1">
+        <v>44680</v>
+      </c>
+      <c r="AG4">
+        <f>AH4+AJ4</f>
+        <v>-2030.0446609825415</v>
+      </c>
+      <c r="AH4">
+        <f>-AH3</f>
+        <v>-1174.7145391043391</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>AH1*AH4</f>
+        <v>-22784.763200467762</v>
+      </c>
+      <c r="AJ4">
+        <v>-855.33012187820236</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>AJ$1*AJ4</f>
+        <v>-16686.635347721851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44571</v>
       </c>
@@ -1075,8 +1267,29 @@
         <f>Z4+AA4</f>
         <v>-855.33012187820236</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF5" s="1">
+        <v>44799</v>
+      </c>
+      <c r="AG5">
+        <f>AJ5+AL5</f>
+        <v>-502.6388539834129</v>
+      </c>
+      <c r="AJ5">
+        <v>-169.83774936071291</v>
+      </c>
+      <c r="AK5" s="2">
+        <f>AJ$1*AJ5</f>
+        <v>-3313.3646522781482</v>
+      </c>
+      <c r="AL5">
+        <v>-332.8011046227</v>
+      </c>
+      <c r="AM5" s="2">
+        <f>AL$1*AL5</f>
+        <v>-6505.2631920599169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44571</v>
       </c>
@@ -1097,15 +1310,46 @@
       <c r="G6" s="3">
         <v>58810.33</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <f>G6-F6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="Q6" s="3"/>
+      <c r="L6" s="1">
+        <v>44799</v>
+      </c>
+      <c r="M6">
+        <v>19.895</v>
+      </c>
+      <c r="N6">
+        <f>-O6/M6</f>
+        <v>-502.6388539834129</v>
+      </c>
+      <c r="O6">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="3">
+        <f>O6-Q6</f>
+        <v>9818.6278443380652</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>-AB10*(M6-AC10)-AB11*(M6-AC11)</f>
+        <v>181.3721556619343</v>
+      </c>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V6">
+        <v>-5000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>44746</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44572</v>
       </c>
@@ -1123,11 +1367,37 @@
         <f t="shared" si="0"/>
         <v>58684.69</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>44809</v>
+      </c>
+      <c r="M7">
+        <v>19.925999999999998</v>
+      </c>
+      <c r="N7">
+        <f>O7/M7</f>
+        <v>501.85687042055611</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V7">
+        <v>-5000</v>
+      </c>
+      <c r="W7" s="1">
+        <v>44768</v>
+      </c>
+      <c r="AB7">
+        <f>AA3+Z5</f>
+        <v>169.83774936071291</v>
+      </c>
+      <c r="AC7">
+        <f>AB3</f>
+        <v>19.509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44572</v>
       </c>
@@ -1148,8 +1418,22 @@
       <c r="L8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V8">
+        <v>-5000</v>
+      </c>
+      <c r="W8" s="1">
+        <v>44797</v>
+      </c>
+      <c r="AB8">
+        <f>AA2</f>
+        <v>1534.7623676267458</v>
+      </c>
+      <c r="AC8">
+        <f>AB2</f>
+        <v>19.547000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44572</v>
       </c>
@@ -1170,14 +1454,31 @@
       <c r="G9" s="3">
         <v>57684.18</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="21">
         <f>G9-F9</f>
         <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V9">
+        <v>-5000</v>
+      </c>
+      <c r="W9" s="1">
+        <v>44827</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>44686</v>
+      </c>
+      <c r="AB9">
+        <f>N5</f>
+        <v>2031.591243841739</v>
+      </c>
+      <c r="AC9">
+        <f>M5</f>
+        <v>19.689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44574</v>
       </c>
@@ -1197,8 +1498,29 @@
       </c>
       <c r="L10" s="1"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V10">
+        <v>-5000</v>
+      </c>
+      <c r="W10" s="1">
+        <v>44851</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>44799</v>
+      </c>
+      <c r="AA10">
+        <f>N6</f>
+        <v>-502.6388539834129</v>
+      </c>
+      <c r="AB10">
+        <f>-AB7</f>
+        <v>-169.83774936071291</v>
+      </c>
+      <c r="AC10">
+        <f>AC7</f>
+        <v>19.509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44574</v>
       </c>
@@ -1220,8 +1542,22 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V11">
+        <v>-5000</v>
+      </c>
+      <c r="W11" s="1">
+        <v>44863</v>
+      </c>
+      <c r="AB11">
+        <f>AA10-AB10</f>
+        <v>-332.8011046227</v>
+      </c>
+      <c r="AC11">
+        <f>AC8</f>
+        <v>19.547000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44574</v>
       </c>
@@ -1242,26 +1578,41 @@
       <c r="G12" s="3">
         <v>56687.77</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="21">
         <f>G12-F12</f>
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="V12">
+        <v>-5000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>44876</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>44799</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44575</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <f t="shared" si="1"/>
         <v>56687.770000000004</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>14773.28</v>
       </c>
       <c r="F13" s="3">
@@ -1271,12 +1622,28 @@
       <c r="G13" s="3">
         <v>71461.05</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="21">
         <f>G13-F13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <f>AB8+AB11</f>
+        <v>1201.9612630040458</v>
+      </c>
+      <c r="AC13">
+        <f>AC8</f>
+        <v>19.547000000000001</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>AB13*AC13</f>
+        <v>23494.736807940084</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>AB13*(M$1-AC13)</f>
+        <v>724.78264159143714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44578</v>
       </c>
@@ -1297,12 +1664,28 @@
       <c r="G14" s="3">
         <v>71073.13</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="21">
         <f>G14-F14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <f>AB9</f>
+        <v>2031.591243841739</v>
+      </c>
+      <c r="AC14">
+        <f>AC9</f>
+        <v>19.689</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>AB14*AC14</f>
+        <v>40000</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>AB14*(M$1-AC14)</f>
+        <v>936.56356341103867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44579</v>
       </c>
@@ -1320,8 +1703,10 @@
         <f t="shared" si="3"/>
         <v>69525.89</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44579</v>
       </c>
@@ -1342,12 +1727,14 @@
       <c r="G16" s="3">
         <v>68525.89</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <f>G16-F16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>44580</v>
       </c>
@@ -1365,8 +1752,10 @@
         <f t="shared" si="3"/>
         <v>67934.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>44580</v>
       </c>
@@ -1388,12 +1777,14 @@
       <c r="G18" s="3">
         <v>67933.55</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="21">
         <f>G18-F18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44582</v>
       </c>
@@ -1411,8 +1802,10 @@
         <f t="shared" si="3"/>
         <v>66933.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>44582</v>
       </c>
@@ -1431,7 +1824,7 @@
         <v>61933.55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>44582</v>
       </c>
@@ -1452,12 +1845,12 @@
       <c r="G21" s="3">
         <v>66446.73</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="21">
         <f>G21-F21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>44586</v>
       </c>
@@ -1476,7 +1869,7 @@
         <v>65996.73000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>44586</v>
       </c>
@@ -1496,7 +1889,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>44586</v>
       </c>
@@ -1515,7 +1908,7 @@
         <v>64197.73000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>44586</v>
       </c>
@@ -1534,7 +1927,7 @@
         <v>64097.73000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>44586</v>
       </c>
@@ -1556,12 +1949,12 @@
       <c r="G26" s="3">
         <v>64095.69</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="21">
         <f>G26-F26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>44587</v>
       </c>
@@ -1580,7 +1973,7 @@
         <v>62939.30000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>44587</v>
       </c>
@@ -1602,12 +1995,12 @@
       <c r="G28" s="3">
         <v>62938.79</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="21">
         <f>G28-F28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>44588</v>
       </c>
@@ -1626,7 +2019,7 @@
         <v>61938.790000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>44588</v>
       </c>
@@ -1645,7 +2038,7 @@
         <v>61356.000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>44588</v>
       </c>
@@ -1665,7 +2058,7 @@
         <v>61355.490000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>44588</v>
       </c>
@@ -1686,7 +2079,7 @@
       <c r="G32" s="3">
         <v>61606.82</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="21">
         <f>G32-F32</f>
         <v>0</v>
       </c>
@@ -1751,7 +2144,7 @@
       <c r="G35" s="3">
         <v>60773.27</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="21">
         <f>G35-F35</f>
         <v>0</v>
       </c>
@@ -1796,7 +2189,7 @@
       <c r="G37" s="3">
         <v>60125.96</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="21">
         <f>G37-F37</f>
         <v>0</v>
       </c>
@@ -1844,14 +2237,14 @@
       <c r="A40" s="7">
         <v>44593</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="20">
         <f t="shared" si="4"/>
         <v>57192.200000000004</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="20">
         <v>49972.62</v>
       </c>
       <c r="F40" s="3">
@@ -1880,7 +2273,7 @@
       <c r="G41" s="3">
         <v>107088.82</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="21">
         <f>G41-F41</f>
         <v>0</v>
       </c>
@@ -1926,7 +2319,7 @@
       <c r="G43" s="3">
         <v>106166.12</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="21">
         <f>G43-F43</f>
         <v>0</v>
       </c>
@@ -1972,7 +2365,7 @@
       <c r="G45" s="3">
         <v>105842.97</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="21">
         <f>G45-F45</f>
         <v>0</v>
       </c>
@@ -1998,7 +2391,7 @@
       <c r="G46" s="3">
         <v>104842.97</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="21">
         <f>G46-F46</f>
         <v>0</v>
       </c>
@@ -2085,7 +2478,7 @@
       <c r="G50" s="3">
         <v>101200.48</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="21">
         <f>G50-F50</f>
         <v>0</v>
       </c>
@@ -2149,7 +2542,7 @@
       <c r="G53" s="3">
         <v>94787.36</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="21">
         <f>G53-F53</f>
         <v>0</v>
       </c>
@@ -2252,7 +2645,7 @@
       <c r="G58" s="3">
         <v>92840.91</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="21">
         <f>G58-F58</f>
         <v>0</v>
       </c>
@@ -2299,14 +2692,14 @@
       <c r="A61" s="7">
         <v>44608</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="15">
         <f t="shared" si="8"/>
         <v>92161.460000000021</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>7109.0300000000007</v>
       </c>
       <c r="F61" s="3">
@@ -2336,7 +2729,7 @@
       <c r="G62" s="3">
         <v>99269.98</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="21">
         <f>G62-F62</f>
         <v>0</v>
       </c>
@@ -2401,7 +2794,7 @@
       <c r="G65" s="3">
         <v>77241.45</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="21">
         <f>G65-F65</f>
         <v>0</v>
       </c>
@@ -2466,7 +2859,7 @@
       <c r="G68" s="3">
         <v>76435.8</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H68" s="21">
         <f>G68-F68</f>
         <v>0</v>
       </c>
@@ -2492,7 +2885,7 @@
       <c r="G69" s="3">
         <v>82095.929999999993</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="21">
         <f>G69-F69</f>
         <v>0</v>
       </c>
@@ -2537,7 +2930,7 @@
       <c r="G71" s="3">
         <v>79997.509999999995</v>
       </c>
-      <c r="H71" s="27">
+      <c r="H71" s="21">
         <f>G71-F71</f>
         <v>0</v>
       </c>
@@ -2680,14 +3073,14 @@
       <c r="A79" s="7">
         <v>44617</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="20">
         <f t="shared" si="10"/>
         <v>75158.820000000022</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="20">
         <v>7028.33</v>
       </c>
       <c r="F79" s="3">
@@ -2697,7 +3090,7 @@
       <c r="G79" s="3">
         <v>82187.149999999994</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="21">
         <f>G79-F79</f>
         <v>0</v>
       </c>
@@ -2723,7 +3116,7 @@
       <c r="G80" s="3">
         <v>81187.149999999994</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H80" s="21">
         <f>G80-F80</f>
         <v>0</v>
       </c>
@@ -2749,7 +3142,7 @@
       <c r="G81" s="3">
         <v>81111.149999999994</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="21">
         <f>G81-F81</f>
         <v>0</v>
       </c>
@@ -2794,7 +3187,7 @@
       <c r="G83" s="3">
         <v>99359.61</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="21">
         <f>G83-F83</f>
         <v>0</v>
       </c>
@@ -2839,7 +3232,7 @@
       <c r="G85" s="3">
         <v>87359.61</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="21">
         <f>G85-F85</f>
         <v>0</v>
       </c>
@@ -2884,7 +3277,7 @@
       <c r="G87" s="3">
         <v>67390.03</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="21">
         <f>G87-F87</f>
         <v>0</v>
       </c>
@@ -2910,7 +3303,7 @@
       <c r="G88" s="3">
         <v>65390.03</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="21">
         <f>G88-F88</f>
         <v>0</v>
       </c>
@@ -2956,7 +3349,7 @@
       <c r="G90" s="3">
         <v>62088.11</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H90" s="21">
         <f>G90-F90</f>
         <v>0</v>
       </c>
@@ -3021,7 +3414,7 @@
       <c r="G93" s="3">
         <v>67777</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H93" s="21">
         <f>G93-F93</f>
         <v>0</v>
       </c>
@@ -3067,7 +3460,7 @@
       <c r="G95" s="3">
         <v>66905.89</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H95" s="21">
         <f>G95-F95</f>
         <v>0</v>
       </c>
@@ -3093,7 +3486,7 @@
       <c r="G96" s="3">
         <v>66352.73</v>
       </c>
-      <c r="H96" s="27">
+      <c r="H96" s="21">
         <f>G96-F96</f>
         <v>0</v>
       </c>
@@ -3119,7 +3512,7 @@
       <c r="G97" s="3">
         <v>65980.259999999995</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H97" s="21">
         <f>G97-F97</f>
         <v>0</v>
       </c>
@@ -3204,7 +3597,7 @@
       <c r="G101" s="3">
         <v>67239.75</v>
       </c>
-      <c r="H101" s="27">
+      <c r="H101" s="21">
         <f>G101-F101</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3230,7 +3623,7 @@
       <c r="G102" s="3">
         <v>66239.75</v>
       </c>
-      <c r="H102" s="27">
+      <c r="H102" s="21">
         <f>G102-F102</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3409,7 +3802,7 @@
       <c r="G111" s="3">
         <v>55909.17</v>
       </c>
-      <c r="H111" s="27">
+      <c r="H111" s="21">
         <f>G111-F111</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3455,7 +3848,7 @@
       <c r="G113" s="3">
         <v>55214.89</v>
       </c>
-      <c r="H113" s="27">
+      <c r="H113" s="21">
         <f>G113-F113</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3464,14 +3857,14 @@
       <c r="A114" s="7">
         <v>44650</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C114" s="20">
         <f t="shared" si="16"/>
         <v>55214.888225000032</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="20">
         <v>6362.99</v>
       </c>
       <c r="F114" s="3">
@@ -3500,7 +3893,7 @@
       <c r="G115" s="3">
         <v>65111.32</v>
       </c>
-      <c r="H115" s="27">
+      <c r="H115" s="21">
         <f>G115-F115</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3565,7 +3958,7 @@
       <c r="G118" s="3">
         <v>63665.760000000002</v>
       </c>
-      <c r="H118" s="27">
+      <c r="H118" s="21">
         <f>G118-F118</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -3650,7 +4043,7 @@
       <c r="G122" s="3">
         <v>70147.17</v>
       </c>
-      <c r="H122" s="27">
+      <c r="H122" s="21">
         <f>G122-F122</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3696,7 +4089,7 @@
       <c r="G124" s="3">
         <v>69333.56</v>
       </c>
-      <c r="H124" s="27">
+      <c r="H124" s="21">
         <f>G124-F124</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3799,7 +4192,7 @@
       <c r="G129" s="3">
         <v>70044.14</v>
       </c>
-      <c r="H129" s="27">
+      <c r="H129" s="21">
         <f>G129-F129</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -3845,7 +4238,7 @@
       <c r="G131" s="3">
         <v>68917.91</v>
       </c>
-      <c r="H131" s="27">
+      <c r="H131" s="21">
         <f>G131-F131</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -3894,7 +4287,7 @@
       <c r="G133" s="3">
         <v>68405.7</v>
       </c>
-      <c r="H133" s="27">
+      <c r="H133" s="21">
         <f>G133-F133</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -3940,7 +4333,7 @@
       <c r="G135" s="3">
         <v>65111.79</v>
       </c>
-      <c r="H135" s="27">
+      <c r="H135" s="21">
         <f>G135-F135</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4024,7 +4417,7 @@
       <c r="G139" s="3">
         <v>63082.85</v>
       </c>
-      <c r="H139" s="27">
+      <c r="H139" s="21">
         <f>G139-F139</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4127,7 +4520,7 @@
       <c r="G144" s="3">
         <v>51826.58</v>
       </c>
-      <c r="H144" s="27">
+      <c r="H144" s="21">
         <f>G144-F144</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4153,7 +4546,7 @@
       <c r="G145" s="3">
         <v>49826.58</v>
       </c>
-      <c r="H145" s="27">
+      <c r="H145" s="21">
         <f>G145-F145</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4179,7 +4572,7 @@
       <c r="G146" s="3">
         <v>48079.73</v>
       </c>
-      <c r="H146" s="27">
+      <c r="H146" s="21">
         <f>G146-F146</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4285,7 +4678,7 @@
       <c r="G151" s="3">
         <v>44213.69</v>
       </c>
-      <c r="H151" s="27">
+      <c r="H151" s="21">
         <f>G151-F151</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4311,7 +4704,7 @@
       <c r="G152" s="3">
         <v>43213.69</v>
       </c>
-      <c r="H152" s="27">
+      <c r="H152" s="21">
         <f>G152-F152</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4337,7 +4730,7 @@
       <c r="G153" s="3">
         <v>49099.69</v>
       </c>
-      <c r="H153" s="27">
+      <c r="H153" s="21">
         <f>G153-F153</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4385,14 +4778,14 @@
       <c r="A156" s="7">
         <v>44679</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="22">
+      <c r="C156" s="20">
         <f t="shared" si="24"/>
         <v>48435.158225000028</v>
       </c>
-      <c r="D156" s="22">
+      <c r="D156" s="20">
         <v>24994.02</v>
       </c>
       <c r="F156" s="3">
@@ -4402,7 +4795,7 @@
       <c r="G156" s="3">
         <v>73429.179999999993</v>
       </c>
-      <c r="H156" s="27">
+      <c r="H156" s="21">
         <f>G156-F156</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -4428,7 +4821,7 @@
       <c r="G157" s="3">
         <v>113429.18</v>
       </c>
-      <c r="H157" s="27">
+      <c r="H157" s="21">
         <f>G157-F157</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -4531,7 +4924,7 @@
       <c r="G162" s="3">
         <v>74485.38</v>
       </c>
-      <c r="H162" s="27">
+      <c r="H162" s="21">
         <f>G162-F162</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -4614,7 +5007,7 @@
       <c r="G166" s="3">
         <v>44671</v>
       </c>
-      <c r="H166" s="27">
+      <c r="H166" s="21">
         <f>G166-F166</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4660,7 +5053,7 @@
       <c r="G168" s="3">
         <v>42938.559999999998</v>
       </c>
-      <c r="H168" s="27">
+      <c r="H168" s="21">
         <f>G168-F168</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4686,7 +5079,7 @@
       <c r="G169" s="3">
         <v>42242.77</v>
       </c>
-      <c r="H169" s="27">
+      <c r="H169" s="21">
         <f>G169-F169</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4712,7 +5105,7 @@
       <c r="G170" s="3">
         <v>37242.769999999997</v>
       </c>
-      <c r="H170" s="27">
+      <c r="H170" s="21">
         <f>G170-F170</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4738,7 +5131,7 @@
       <c r="G171" s="3">
         <v>49915.13</v>
       </c>
-      <c r="H171" s="27">
+      <c r="H171" s="21">
         <f>G171-F171</f>
         <v>1.7749999751686119E-3</v>
       </c>
@@ -4784,7 +5177,7 @@
       <c r="G173" s="3">
         <v>49209.54</v>
       </c>
-      <c r="H173" s="27">
+      <c r="H173" s="21">
         <f>G173-F173</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -4906,7 +5299,7 @@
       <c r="G179" s="3">
         <v>91823.69</v>
       </c>
-      <c r="H179" s="27">
+      <c r="H179" s="21">
         <f>G179-F179</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -4932,7 +5325,7 @@
       <c r="G180" s="3">
         <v>89823.69</v>
       </c>
-      <c r="H180" s="27">
+      <c r="H180" s="21">
         <f>G180-F180</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -4941,14 +5334,14 @@
       <c r="A181" s="7">
         <v>44697</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="22">
+      <c r="C181" s="20">
         <f t="shared" si="30"/>
         <v>89823.68822500002</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="20">
         <v>10626.519999999999</v>
       </c>
       <c r="F181" s="3">
@@ -4958,7 +5351,7 @@
       <c r="G181" s="3">
         <v>100450.21</v>
       </c>
-      <c r="H181" s="27">
+      <c r="H181" s="21">
         <f>G181-F181</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -5022,7 +5415,7 @@
       <c r="G184" s="3">
         <v>95008.36</v>
       </c>
-      <c r="H184" s="27">
+      <c r="H184" s="21">
         <f>G184-F184</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -5086,7 +5479,7 @@
       <c r="G187" s="3">
         <v>102727.4</v>
       </c>
-      <c r="H187" s="27">
+      <c r="H187" s="21">
         <f>G187-F187</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -5151,7 +5544,7 @@
       <c r="G190" s="3">
         <v>97405.67</v>
       </c>
-      <c r="H190" s="27">
+      <c r="H190" s="21">
         <f>G190-F190</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -5216,7 +5609,7 @@
       <c r="G193" s="3">
         <v>94391.41</v>
       </c>
-      <c r="H193" s="27">
+      <c r="H193" s="21">
         <f>G193-F193</f>
         <v>1.7749999824445695E-3</v>
       </c>
@@ -5229,14 +5622,14 @@
         <v>6</v>
       </c>
       <c r="C194" s="2">
-        <f t="shared" ref="C194:C198" si="32">F193</f>
+        <f t="shared" ref="C194:C223" si="32">F193</f>
         <v>94391.408225000021</v>
       </c>
       <c r="E194" s="2">
         <v>958</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" ref="F194:F198" si="33">C194+D194-E194</f>
+        <f t="shared" ref="F194:F223" si="33">C194+D194-E194</f>
         <v>93433.408225000021</v>
       </c>
       <c r="I194" s="10"/>
@@ -5320,7 +5713,7 @@
       <c r="G198" s="3">
         <v>88378.37</v>
       </c>
-      <c r="H198" s="27">
+      <c r="H198" s="21">
         <f>G198-F198</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5333,14 +5726,14 @@
         <v>50</v>
       </c>
       <c r="C199" s="2">
-        <f t="shared" ref="C199:C200" si="34">F198</f>
+        <f t="shared" si="32"/>
         <v>88378.368225000027</v>
       </c>
       <c r="E199" s="2">
         <v>283.22000000000003</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" ref="F199:F200" si="35">C199+D199-E199</f>
+        <f t="shared" si="33"/>
         <v>88095.148225000026</v>
       </c>
     </row>
@@ -5352,7 +5745,7 @@
         <v>43</v>
       </c>
       <c r="C200" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>88095.148225000026</v>
       </c>
       <c r="E200" s="2">
@@ -5360,13 +5753,13 @@
         <v>0.51</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>88094.638225000032</v>
       </c>
       <c r="G200" s="3">
         <v>88094.64</v>
       </c>
-      <c r="H200" s="27">
+      <c r="H200" s="21">
         <f>G200-F200</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5375,24 +5768,24 @@
       <c r="A201" s="7">
         <v>44711</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="22">
-        <f t="shared" ref="C201" si="36">F200</f>
+      <c r="C201" s="20">
+        <f t="shared" si="32"/>
         <v>88094.638225000032</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="20">
         <v>9401.41</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" ref="F201" si="37">C201+D201-E201</f>
+        <f t="shared" si="33"/>
         <v>97496.048225000035</v>
       </c>
       <c r="G201" s="3">
         <v>97496.05</v>
       </c>
-      <c r="H201" s="27">
+      <c r="H201" s="21">
         <f>G201-F201</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5405,14 +5798,14 @@
         <v>54</v>
       </c>
       <c r="C202" s="2">
-        <f t="shared" ref="C202:C205" si="38">F201</f>
+        <f t="shared" si="32"/>
         <v>97496.048225000035</v>
       </c>
       <c r="E202" s="2">
         <v>5000</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" ref="F202:F205" si="39">C202+D202-E202</f>
+        <f t="shared" si="33"/>
         <v>92496.048225000035</v>
       </c>
     </row>
@@ -5424,14 +5817,14 @@
         <v>61</v>
       </c>
       <c r="C203" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>92496.048225000035</v>
       </c>
       <c r="D203" s="2">
         <v>3533.3</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>96029.348225000038</v>
       </c>
     </row>
@@ -5443,20 +5836,20 @@
         <v>49</v>
       </c>
       <c r="C204" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>96029.348225000038</v>
       </c>
       <c r="E204" s="2">
         <v>1000</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>95029.348225000038</v>
       </c>
       <c r="G204" s="3">
         <v>95029.35</v>
       </c>
-      <c r="H204" s="27">
+      <c r="H204" s="21">
         <f>G204-F204</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5469,20 +5862,20 @@
         <v>43</v>
       </c>
       <c r="C205" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>95029.348225000038</v>
       </c>
       <c r="E205" s="2">
         <v>76</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>94953.348225000038</v>
       </c>
       <c r="G205" s="3">
         <v>94953.35</v>
       </c>
-      <c r="H205" s="27">
+      <c r="H205" s="21">
         <f>G205-F205</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5495,14 +5888,14 @@
         <v>38</v>
       </c>
       <c r="C206" s="2">
-        <f t="shared" ref="C206:C208" si="40">F205</f>
+        <f t="shared" si="32"/>
         <v>94953.348225000038</v>
       </c>
       <c r="E206" s="2">
         <v>7075.93</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" ref="F206:F208" si="41">C206+D206-E206</f>
+        <f t="shared" si="33"/>
         <v>87877.41822500003</v>
       </c>
     </row>
@@ -5514,14 +5907,14 @@
         <v>61</v>
       </c>
       <c r="C207" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>87877.41822500003</v>
       </c>
       <c r="D207" s="2">
         <v>2892.5</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>90769.91822500003</v>
       </c>
     </row>
@@ -5533,20 +5926,20 @@
         <v>49</v>
       </c>
       <c r="C208" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>90769.91822500003</v>
       </c>
       <c r="E208" s="2">
         <v>1000</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>89769.91822500003</v>
       </c>
       <c r="G208" s="3">
         <v>89769.919999999998</v>
       </c>
-      <c r="H208" s="27">
+      <c r="H208" s="21">
         <f>G208-F208</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5559,14 +5952,14 @@
         <v>88</v>
       </c>
       <c r="C209" s="2">
-        <f t="shared" ref="C209:C212" si="42">F208</f>
+        <f t="shared" si="32"/>
         <v>89769.91822500003</v>
       </c>
       <c r="E209" s="2">
         <v>2459</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" ref="F209:F212" si="43">C209+D209-E209</f>
+        <f t="shared" si="33"/>
         <v>87310.91822500003</v>
       </c>
     </row>
@@ -5578,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="C210" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>87310.91822500003</v>
       </c>
       <c r="E210" s="2">
@@ -5586,13 +5979,13 @@
         <v>0.51</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>87310.408225000036</v>
       </c>
       <c r="G210" s="3">
         <v>87310.41</v>
       </c>
-      <c r="H210" s="27">
+      <c r="H210" s="21">
         <f>G210-F210</f>
         <v>1.7749999678926542E-3</v>
       </c>
@@ -5605,14 +5998,14 @@
         <v>50</v>
       </c>
       <c r="C211" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>87310.408225000036</v>
       </c>
       <c r="E211" s="2">
         <v>1645.79</v>
       </c>
       <c r="F211" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>85664.618225000042</v>
       </c>
     </row>
@@ -5624,7 +6017,7 @@
         <v>43</v>
       </c>
       <c r="C212" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v>85664.618225000042</v>
       </c>
       <c r="E212" s="2">
@@ -5632,13 +6025,13 @@
         <v>0.51</v>
       </c>
       <c r="F212" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>85664.108225000047</v>
       </c>
       <c r="G212" s="3">
         <v>85664.11</v>
       </c>
-      <c r="H212" s="27">
+      <c r="H212" s="21">
         <f>G212-F212</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5651,20 +6044,20 @@
         <v>49</v>
       </c>
       <c r="C213" s="2">
-        <f t="shared" ref="C213:C214" si="44">F212</f>
+        <f t="shared" si="32"/>
         <v>85664.108225000047</v>
       </c>
       <c r="E213" s="2">
         <v>1000</v>
       </c>
       <c r="F213" s="3">
-        <f t="shared" ref="F213:F214" si="45">C213+D213-E213</f>
+        <f t="shared" si="33"/>
         <v>84664.108225000047</v>
       </c>
       <c r="G213" s="3">
         <v>84664.11</v>
       </c>
-      <c r="H213" s="27">
+      <c r="H213" s="21">
         <f>G213-F213</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5677,20 +6070,20 @@
         <v>53</v>
       </c>
       <c r="C214" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="32"/>
         <v>84664.108225000047</v>
       </c>
       <c r="E214" s="2">
         <v>383.26</v>
       </c>
       <c r="F214" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="33"/>
         <v>84280.848225000052</v>
       </c>
       <c r="G214" s="3">
         <v>84280.85</v>
       </c>
-      <c r="H214" s="27">
+      <c r="H214" s="21">
         <f>G214-F214</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5703,20 +6096,20 @@
         <v>54</v>
       </c>
       <c r="C215" s="2">
-        <f t="shared" ref="C215" si="46">F214</f>
+        <f t="shared" si="32"/>
         <v>84280.848225000052</v>
       </c>
       <c r="E215" s="2">
         <v>5000</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" ref="F215" si="47">C215+D215-E215</f>
+        <f t="shared" si="33"/>
         <v>79280.848225000052</v>
       </c>
       <c r="G215" s="3">
         <v>79280.850000000006</v>
       </c>
-      <c r="H215" s="27">
+      <c r="H215" s="21">
         <f>G215-F215</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5729,14 +6122,14 @@
         <v>38</v>
       </c>
       <c r="C216" s="2">
-        <f t="shared" ref="C216:C220" si="48">F215</f>
+        <f t="shared" si="32"/>
         <v>79280.848225000052</v>
       </c>
       <c r="E216" s="2">
         <v>3503.24</v>
       </c>
       <c r="F216" s="3">
-        <f t="shared" ref="F216:F220" si="49">C216+D216-E216</f>
+        <f t="shared" si="33"/>
         <v>75777.608225000047</v>
       </c>
     </row>
@@ -5748,20 +6141,20 @@
         <v>44</v>
       </c>
       <c r="C217" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="32"/>
         <v>75777.608225000047</v>
       </c>
       <c r="D217" s="2">
         <v>3411.09</v>
       </c>
       <c r="F217" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>79188.698225000044</v>
       </c>
       <c r="G217" s="3">
         <v>79188.7</v>
       </c>
-      <c r="H217" s="27">
+      <c r="H217" s="21">
         <f>G217-F217</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5774,14 +6167,14 @@
         <v>51</v>
       </c>
       <c r="C218" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="32"/>
         <v>79188.698225000044</v>
       </c>
       <c r="E218" s="2">
         <v>361.76</v>
       </c>
       <c r="F218" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>78826.938225000049</v>
       </c>
     </row>
@@ -5793,14 +6186,14 @@
         <v>45</v>
       </c>
       <c r="C219" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="32"/>
         <v>78826.938225000049</v>
       </c>
       <c r="E219" s="2">
         <v>511.7</v>
       </c>
       <c r="F219" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>78315.238225000052</v>
       </c>
       <c r="I219" s="10" t="s">
@@ -5815,7 +6208,7 @@
         <v>43</v>
       </c>
       <c r="C220" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="32"/>
         <v>78315.238225000052</v>
       </c>
       <c r="E220" s="2">
@@ -5823,7 +6216,7 @@
         <v>1.02</v>
       </c>
       <c r="F220" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>78314.218225000048</v>
       </c>
     </row>
@@ -5831,18 +6224,18 @@
       <c r="A221" s="7">
         <v>44727</v>
       </c>
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C221" s="22">
-        <f t="shared" ref="C221:C223" si="50">F220</f>
+      <c r="C221" s="20">
+        <f t="shared" si="32"/>
         <v>78314.218225000048</v>
       </c>
-      <c r="D221" s="22">
+      <c r="D221" s="20">
         <v>2729.64</v>
       </c>
       <c r="F221" s="3">
-        <f t="shared" ref="F221:F223" si="51">C221+D221-E221</f>
+        <f t="shared" si="33"/>
         <v>81043.858225000047</v>
       </c>
     </row>
@@ -5854,20 +6247,20 @@
         <v>89</v>
       </c>
       <c r="C222" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="32"/>
         <v>81043.858225000047</v>
       </c>
       <c r="D222" s="2">
         <v>3063.06</v>
       </c>
       <c r="F222" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="33"/>
         <v>84106.918225000045</v>
       </c>
       <c r="G222" s="3">
         <v>84106.92</v>
       </c>
-      <c r="H222" s="27">
+      <c r="H222" s="21">
         <f>G222-F222</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5880,14 +6273,14 @@
         <v>17</v>
       </c>
       <c r="C223" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="32"/>
         <v>84106.918225000045</v>
       </c>
       <c r="E223" s="2">
         <v>371.17</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="33"/>
         <v>83735.748225000047</v>
       </c>
     </row>
@@ -5899,14 +6292,14 @@
         <v>49</v>
       </c>
       <c r="C224" s="2">
-        <f t="shared" ref="C224:C230" si="52">F223</f>
+        <f t="shared" ref="C224:C230" si="34">F223</f>
         <v>83735.748225000047</v>
       </c>
       <c r="E224" s="2">
         <v>1000</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" ref="F224:F230" si="53">C224+D224-E224</f>
+        <f t="shared" ref="F224:F230" si="35">C224+D224-E224</f>
         <v>82735.748225000047</v>
       </c>
     </row>
@@ -5918,14 +6311,14 @@
         <v>90</v>
       </c>
       <c r="C225" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>82735.748225000047</v>
       </c>
       <c r="E225" s="2">
         <v>260</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>82475.748225000047</v>
       </c>
     </row>
@@ -5937,20 +6330,20 @@
         <v>43</v>
       </c>
       <c r="C226" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>82475.748225000047</v>
       </c>
       <c r="E226" s="2">
         <v>0.51</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>82475.238225000052</v>
       </c>
       <c r="G226" s="3">
         <v>82475.240000000005</v>
       </c>
-      <c r="H226" s="27">
+      <c r="H226" s="21">
         <f>G226-F226</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -5963,14 +6356,14 @@
         <v>39</v>
       </c>
       <c r="C227" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>82475.238225000052</v>
       </c>
       <c r="E227" s="2">
         <v>1311.11</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>81164.128225000051</v>
       </c>
     </row>
@@ -5982,14 +6375,14 @@
         <v>50</v>
       </c>
       <c r="C228" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>81164.128225000051</v>
       </c>
       <c r="E228" s="2">
         <v>327.25</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>80836.878225000051</v>
       </c>
     </row>
@@ -6001,14 +6394,14 @@
         <v>80</v>
       </c>
       <c r="C229" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>80836.878225000051</v>
       </c>
       <c r="E229" s="2">
         <v>1497.76</v>
       </c>
       <c r="F229" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>79339.118225000057</v>
       </c>
     </row>
@@ -6020,7 +6413,7 @@
         <v>43</v>
       </c>
       <c r="C230" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="34"/>
         <v>79339.118225000057</v>
       </c>
       <c r="E230" s="2">
@@ -6028,13 +6421,13 @@
         <v>1.02</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="35"/>
         <v>79338.098225000052</v>
       </c>
       <c r="G230" s="3">
         <v>79338.100000000006</v>
       </c>
-      <c r="H230" s="27">
+      <c r="H230" s="21">
         <f>G230-F230</f>
         <v>1.774999953340739E-3</v>
       </c>
@@ -6047,14 +6440,14 @@
         <v>38</v>
       </c>
       <c r="C231" s="2">
-        <f t="shared" ref="C231:C262" si="54">F230</f>
+        <f>F230</f>
         <v>79338.098225000052</v>
       </c>
       <c r="E231" s="2">
         <v>3019.88</v>
       </c>
       <c r="F231" s="3">
-        <f t="shared" ref="F231:F262" si="55">C231+D231-E231</f>
+        <f>C231+D231-E231</f>
         <v>76318.218225000048</v>
       </c>
     </row>
@@ -6066,14 +6459,14 @@
         <v>51</v>
       </c>
       <c r="C232" s="2">
-        <f t="shared" si="54"/>
+        <f>F231</f>
         <v>76318.218225000048</v>
       </c>
       <c r="E232" s="2">
         <v>480.11</v>
       </c>
       <c r="F232" s="3">
-        <f t="shared" si="55"/>
+        <f>C232+D232-E232</f>
         <v>75838.108225000047</v>
       </c>
     </row>
@@ -6085,7 +6478,7 @@
         <v>43</v>
       </c>
       <c r="C233" s="2">
-        <f t="shared" si="54"/>
+        <f>F232</f>
         <v>75838.108225000047</v>
       </c>
       <c r="E233" s="2">
@@ -6093,8 +6486,15 @@
         <v>0.51</v>
       </c>
       <c r="F233" s="3">
-        <f t="shared" si="55"/>
+        <f>C233+D233-E233</f>
         <v>75837.598225000052</v>
+      </c>
+      <c r="G233" s="3">
+        <v>75837.600000000006</v>
+      </c>
+      <c r="H233" s="21">
+        <f>G233-F233</f>
+        <v>1.774999953340739E-3</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
@@ -6105,14 +6505,14 @@
         <v>37</v>
       </c>
       <c r="C234" s="2">
-        <f t="shared" si="54"/>
+        <f>F233</f>
         <v>75837.598225000052</v>
       </c>
       <c r="E234" s="2">
         <v>1268.1099999999999</v>
       </c>
       <c r="F234" s="3">
-        <f t="shared" si="55"/>
+        <f>C234+D234-E234</f>
         <v>74569.488225000052</v>
       </c>
       <c r="I234" s="10" t="s">
@@ -6121,21 +6521,29 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C235" s="2">
-        <f t="shared" si="54"/>
+        <f>F234</f>
         <v>74569.488225000052</v>
       </c>
       <c r="E235" s="2">
-        <v>450</v>
+        <f>0.51</f>
+        <v>0.51</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" si="55"/>
-        <v>74119.488225000052</v>
+        <f>C235+D235-E235</f>
+        <v>74568.978225000057</v>
+      </c>
+      <c r="G235" s="3">
+        <v>74568.98</v>
+      </c>
+      <c r="H235" s="21">
+        <f>G235-F235</f>
+        <v>1.7749999387888238E-3</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
@@ -6143,18 +6551,18 @@
         <v>44736</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" s="2">
-        <f t="shared" si="54"/>
-        <v>74119.488225000052</v>
+        <f t="shared" ref="C236:C241" si="36">F235</f>
+        <v>74568.978225000057</v>
       </c>
       <c r="E236" s="2">
-        <v>858</v>
+        <v>450</v>
       </c>
       <c r="F236" s="3">
-        <f t="shared" si="55"/>
-        <v>73261.488225000052</v>
+        <f t="shared" ref="F236:F241" si="37">C236+D236-E236</f>
+        <v>74118.978225000057</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
@@ -6162,852 +6570,4968 @@
         <v>44736</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C237" s="2">
-        <f t="shared" si="54"/>
-        <v>73261.488225000052</v>
+        <f t="shared" si="36"/>
+        <v>74118.978225000057</v>
       </c>
       <c r="E237" s="2">
-        <v>53</v>
+        <v>958</v>
       </c>
       <c r="F237" s="3">
-        <f t="shared" si="55"/>
-        <v>73208.488225000052</v>
+        <f t="shared" si="37"/>
+        <v>73160.978225000057</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="7">
-        <v>44739</v>
+        <v>44736</v>
       </c>
       <c r="B238" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C238" s="2">
-        <f t="shared" si="54"/>
-        <v>73208.488225000052</v>
+        <f t="shared" si="36"/>
+        <v>73160.978225000057</v>
       </c>
       <c r="E238" s="2">
-        <v>906.28</v>
+        <v>57</v>
       </c>
       <c r="F238" s="3">
-        <f t="shared" si="55"/>
-        <v>72302.208225000053</v>
+        <f t="shared" si="37"/>
+        <v>73103.978225000057</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="7">
-        <v>44740</v>
-      </c>
-      <c r="B239" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="26">
-        <f t="shared" si="54"/>
-        <v>72302.208225000053</v>
-      </c>
-      <c r="D239" s="26">
-        <v>6475.8</v>
+        <v>44736</v>
+      </c>
+      <c r="B239" t="s">
+        <v>76</v>
+      </c>
+      <c r="C239" s="2">
+        <f t="shared" si="36"/>
+        <v>73103.978225000057</v>
+      </c>
+      <c r="E239" s="2">
+        <v>5873</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" si="55"/>
-        <v>78778.008225000056</v>
+        <f t="shared" si="37"/>
+        <v>67230.978225000057</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="7">
+        <v>44736</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" s="2">
+        <f t="shared" si="36"/>
+        <v>67230.978225000057</v>
+      </c>
+      <c r="E240" s="2">
+        <f>4*0.51</f>
+        <v>2.04</v>
+      </c>
+      <c r="F240" s="3">
+        <f t="shared" si="37"/>
+        <v>67228.938225000064</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241" s="7">
+        <v>44736</v>
+      </c>
+      <c r="B241" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="2">
+        <f t="shared" si="36"/>
+        <v>67228.938225000064</v>
+      </c>
+      <c r="E241" s="2">
+        <v>500</v>
+      </c>
+      <c r="F241" s="3">
+        <f t="shared" si="37"/>
+        <v>66728.938225000064</v>
+      </c>
+      <c r="G241" s="3">
+        <v>66728.94</v>
+      </c>
+      <c r="H241" s="21">
+        <f>G241-F241</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242" s="7">
+        <v>44739</v>
+      </c>
+      <c r="B242" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" s="2">
+        <f t="shared" ref="C242:C274" si="38">F241</f>
+        <v>66728.938225000064</v>
+      </c>
+      <c r="E242" s="2">
+        <v>906.28</v>
+      </c>
+      <c r="F242" s="3">
+        <f t="shared" ref="F242:F274" si="39">C242+D242-E242</f>
+        <v>65822.658225000065</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="7">
+        <v>44739</v>
+      </c>
+      <c r="B243" t="s">
+        <v>43</v>
+      </c>
+      <c r="C243" s="2">
+        <f t="shared" si="38"/>
+        <v>65822.658225000065</v>
+      </c>
+      <c r="E243" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F243" s="3">
+        <f t="shared" si="39"/>
+        <v>65822.14822500007</v>
+      </c>
+      <c r="G243" s="3">
+        <v>65822.149999999994</v>
+      </c>
+      <c r="H243" s="21">
+        <f>G243-F243</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="7">
         <v>44740</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B244" t="s">
         <v>39</v>
       </c>
-      <c r="C240" s="2">
-        <f t="shared" si="54"/>
-        <v>78778.008225000056</v>
-      </c>
-      <c r="E240" s="2">
+      <c r="C244" s="2">
+        <f t="shared" si="38"/>
+        <v>65822.14822500007</v>
+      </c>
+      <c r="E244" s="2">
         <v>9194.23</v>
       </c>
-      <c r="F240" s="3">
-        <f t="shared" si="55"/>
-        <v>69583.77822500006</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A241" s="7">
+      <c r="F244" s="3">
+        <f t="shared" si="39"/>
+        <v>56627.918225000074</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245" s="7">
+        <v>44740</v>
+      </c>
+      <c r="B245" t="s">
+        <v>43</v>
+      </c>
+      <c r="C245" s="2">
+        <f t="shared" si="38"/>
+        <v>56627.918225000074</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F245" s="3">
+        <f t="shared" si="39"/>
+        <v>56627.408225000072</v>
+      </c>
+      <c r="G245" s="3">
+        <v>56627.41</v>
+      </c>
+      <c r="H245" s="21">
+        <f>G245-F245</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246" s="7">
+        <v>44741</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="20">
+        <f t="shared" si="38"/>
+        <v>56627.408225000072</v>
+      </c>
+      <c r="D246" s="20">
+        <v>6475.8</v>
+      </c>
+      <c r="F246" s="3">
+        <f t="shared" si="39"/>
+        <v>63103.208225000075</v>
+      </c>
+      <c r="G246" s="3">
+        <v>63103.21</v>
+      </c>
+      <c r="H246" s="21">
+        <f>G246-F246</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B247" t="s">
+        <v>43</v>
+      </c>
+      <c r="C247" s="2">
+        <f t="shared" si="38"/>
+        <v>63103.208225000075</v>
+      </c>
+      <c r="E247" s="2">
+        <v>76</v>
+      </c>
+      <c r="F247" s="3">
+        <f t="shared" si="39"/>
+        <v>63027.208225000075</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B248" t="s">
+        <v>49</v>
+      </c>
+      <c r="C248" s="2">
+        <f t="shared" si="38"/>
+        <v>63027.208225000075</v>
+      </c>
+      <c r="E248" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F248" s="3">
+        <f t="shared" si="39"/>
+        <v>62027.208225000075</v>
+      </c>
+      <c r="G248" s="3">
+        <v>62027.21</v>
+      </c>
+      <c r="H248" s="21">
+        <f>G248-F248</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="7">
+        <v>44746</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="2">
+        <f t="shared" si="38"/>
+        <v>62027.208225000075</v>
+      </c>
+      <c r="E249" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F249" s="3">
+        <f t="shared" si="39"/>
+        <v>57027.208225000075</v>
+      </c>
+      <c r="G249" s="3">
+        <v>57027.21</v>
+      </c>
+      <c r="H249" s="21">
+        <f>G249-F249</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250" s="7">
         <v>44748</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B250" t="s">
         <v>50</v>
       </c>
-      <c r="C241" s="2">
-        <f t="shared" si="54"/>
-        <v>69583.77822500006</v>
-      </c>
-      <c r="E241" s="2">
+      <c r="C250" s="2">
+        <f t="shared" si="38"/>
+        <v>57027.208225000075</v>
+      </c>
+      <c r="E250" s="2">
         <v>1737.4</v>
       </c>
-      <c r="F241" s="3">
-        <f t="shared" si="55"/>
-        <v>67846.378225000066</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A242" s="7">
+      <c r="F250" s="3">
+        <f t="shared" si="39"/>
+        <v>55289.808225000073</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="7">
+        <v>44748</v>
+      </c>
+      <c r="B251" t="s">
+        <v>43</v>
+      </c>
+      <c r="C251" s="2">
+        <f t="shared" si="38"/>
+        <v>55289.808225000073</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F251" s="3">
+        <f t="shared" si="39"/>
+        <v>55289.298225000071</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="7">
+        <v>44748</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" s="2">
+        <f t="shared" si="38"/>
+        <v>55289.298225000071</v>
+      </c>
+      <c r="E252" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F252" s="3">
+        <f t="shared" si="39"/>
+        <v>51289.298225000071</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="7">
+        <v>44748</v>
+      </c>
+      <c r="B253" t="s">
+        <v>61</v>
+      </c>
+      <c r="C253" s="2">
+        <f t="shared" si="38"/>
+        <v>51289.298225000071</v>
+      </c>
+      <c r="D253" s="2">
+        <v>4017.7</v>
+      </c>
+      <c r="F253" s="3">
+        <f t="shared" si="39"/>
+        <v>55306.998225000068</v>
+      </c>
+      <c r="G253" s="3">
+        <v>55307</v>
+      </c>
+      <c r="H253" s="21">
+        <f>G253-F253</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="7">
         <v>44750</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B254" t="s">
         <v>51</v>
       </c>
-      <c r="C242" s="2">
-        <f t="shared" si="54"/>
-        <v>67846.378225000066</v>
-      </c>
-      <c r="E242" s="2">
+      <c r="C254" s="2">
+        <f t="shared" si="38"/>
+        <v>55306.998225000068</v>
+      </c>
+      <c r="E254" s="2">
         <v>3375.23</v>
       </c>
-      <c r="F242" s="3">
-        <f t="shared" si="55"/>
-        <v>64471.148225000063</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A243" s="7">
+      <c r="F254" s="3">
+        <f t="shared" si="39"/>
+        <v>51931.768225000065</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="7">
+        <v>44750</v>
+      </c>
+      <c r="B255" t="s">
+        <v>43</v>
+      </c>
+      <c r="C255" s="2">
+        <f t="shared" si="38"/>
+        <v>51931.768225000065</v>
+      </c>
+      <c r="E255" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F255" s="3">
+        <f t="shared" si="39"/>
+        <v>51931.258225000063</v>
+      </c>
+      <c r="G255" s="3">
+        <v>51931.26</v>
+      </c>
+      <c r="H255" s="21">
+        <f>G255-F255</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="7">
         <v>44755</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B256" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="2">
-        <f t="shared" si="54"/>
-        <v>64471.148225000063</v>
-      </c>
-      <c r="E243" s="2">
+      <c r="C256" s="2">
+        <f t="shared" si="38"/>
+        <v>51931.258225000063</v>
+      </c>
+      <c r="E256" s="2">
         <v>7971.21</v>
       </c>
-      <c r="F243" s="3">
-        <f t="shared" si="55"/>
-        <v>56499.938225000064</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A244" s="7">
+      <c r="F256" s="3">
+        <f t="shared" si="39"/>
+        <v>43960.048225000064</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="7">
+        <v>44755</v>
+      </c>
+      <c r="B257" t="s">
+        <v>43</v>
+      </c>
+      <c r="C257" s="2">
+        <f t="shared" si="38"/>
+        <v>43960.048225000064</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F257" s="3">
+        <f t="shared" si="39"/>
+        <v>43959.538225000062</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="7">
+        <v>44755</v>
+      </c>
+      <c r="B258" t="s">
+        <v>49</v>
+      </c>
+      <c r="C258" s="2">
+        <f t="shared" si="38"/>
+        <v>43959.538225000062</v>
+      </c>
+      <c r="E258" s="2">
+        <v>500</v>
+      </c>
+      <c r="F258" s="3">
+        <f t="shared" si="39"/>
+        <v>43459.538225000062</v>
+      </c>
+      <c r="G258" s="3">
+        <v>43459.54</v>
+      </c>
+      <c r="H258" s="21">
+        <f>G258-F258</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="7">
         <v>44756</v>
       </c>
-      <c r="B244" s="18" t="s">
+      <c r="B259" t="s">
+        <v>93</v>
+      </c>
+      <c r="C259" s="2">
+        <f t="shared" si="38"/>
+        <v>43459.538225000062</v>
+      </c>
+      <c r="E259" s="2">
+        <v>714</v>
+      </c>
+      <c r="F259" s="3">
+        <f t="shared" si="39"/>
+        <v>42745.538225000062</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="7">
+        <v>44756</v>
+      </c>
+      <c r="B260" t="s">
+        <v>49</v>
+      </c>
+      <c r="C260" s="2">
+        <f t="shared" si="38"/>
+        <v>42745.538225000062</v>
+      </c>
+      <c r="E260" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F260" s="3">
+        <f t="shared" si="39"/>
+        <v>41245.538225000062</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="7">
+        <v>44756</v>
+      </c>
+      <c r="B261" t="s">
+        <v>94</v>
+      </c>
+      <c r="C261" s="2">
+        <f t="shared" si="38"/>
+        <v>41245.538225000062</v>
+      </c>
+      <c r="E261" s="2">
+        <v>463.78</v>
+      </c>
+      <c r="F261" s="3">
+        <f t="shared" si="39"/>
+        <v>40781.758225000063</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="7">
+        <v>44756</v>
+      </c>
+      <c r="B262" t="s">
+        <v>43</v>
+      </c>
+      <c r="C262" s="2">
+        <f t="shared" si="38"/>
+        <v>40781.758225000063</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F262" s="3">
+        <f t="shared" si="39"/>
+        <v>40781.248225000061</v>
+      </c>
+      <c r="G262" s="3">
+        <v>40781.25</v>
+      </c>
+      <c r="H262" s="21">
+        <f>G262-F262</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="7">
+        <v>44757</v>
+      </c>
+      <c r="B263" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C244" s="19">
-        <f t="shared" si="54"/>
-        <v>56499.938225000064</v>
-      </c>
-      <c r="D244" s="19">
+      <c r="C263" s="20">
+        <f t="shared" si="38"/>
+        <v>40781.248225000061</v>
+      </c>
+      <c r="D263" s="20">
         <v>4521.4500000000007</v>
       </c>
-      <c r="F244" s="3">
-        <f t="shared" si="55"/>
-        <v>61021.388225000061</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A245" s="7">
-        <v>44757</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="F263" s="3">
+        <f t="shared" si="39"/>
+        <v>45302.698225000058</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45302.7</v>
+      </c>
+      <c r="H263" s="21">
+        <f>G263-F263</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B264" t="s">
         <v>17</v>
       </c>
-      <c r="C245" s="2">
-        <f t="shared" si="54"/>
-        <v>61021.388225000061</v>
-      </c>
-      <c r="E245" s="2">
-        <v>350</v>
-      </c>
-      <c r="F245" s="3">
-        <f t="shared" si="55"/>
-        <v>60671.388225000061</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A246" s="7">
-        <v>44757</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="C264" s="2">
+        <f t="shared" si="38"/>
+        <v>45302.698225000058</v>
+      </c>
+      <c r="E264" s="2">
+        <v>393.59</v>
+      </c>
+      <c r="F264" s="3">
+        <f t="shared" si="39"/>
+        <v>44909.108225000062</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B265" t="s">
         <v>52</v>
       </c>
-      <c r="C246" s="2">
-        <f t="shared" si="54"/>
-        <v>60671.388225000061</v>
-      </c>
-      <c r="E246" s="2">
+      <c r="C265" s="2">
+        <f t="shared" si="38"/>
+        <v>44909.108225000062</v>
+      </c>
+      <c r="E265" s="2">
         <v>315.77999999999997</v>
       </c>
-      <c r="F246" s="3">
-        <f t="shared" si="55"/>
-        <v>60355.608225000062</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A247" s="7">
-        <v>44764</v>
-      </c>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" s="2">
-        <f t="shared" si="54"/>
-        <v>60355.608225000062</v>
-      </c>
-      <c r="E247" s="2">
-        <v>450</v>
-      </c>
-      <c r="F247" s="3">
-        <f t="shared" si="55"/>
-        <v>59905.608225000062</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A248" s="7">
-        <v>44764</v>
-      </c>
-      <c r="B248" t="s">
-        <v>6</v>
-      </c>
-      <c r="C248" s="2">
-        <f t="shared" si="54"/>
-        <v>59905.608225000062</v>
-      </c>
-      <c r="E248" s="2">
-        <v>858</v>
-      </c>
-      <c r="F248" s="3">
-        <f t="shared" si="55"/>
-        <v>59047.608225000062</v>
-      </c>
-      <c r="I248" s="10"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A249" s="7">
-        <v>44764</v>
-      </c>
-      <c r="B249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" s="2">
-        <f t="shared" si="54"/>
-        <v>59047.608225000062</v>
-      </c>
-      <c r="E249" s="2">
-        <v>1621</v>
-      </c>
-      <c r="F249" s="3">
-        <f t="shared" si="55"/>
-        <v>57426.608225000062</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A250" s="7">
-        <v>44767</v>
-      </c>
-      <c r="B250" t="s">
-        <v>18</v>
-      </c>
-      <c r="C250" s="2">
-        <f t="shared" si="54"/>
-        <v>57426.608225000062</v>
-      </c>
-      <c r="E250" s="2">
-        <v>53</v>
-      </c>
-      <c r="F250" s="3">
-        <f t="shared" si="55"/>
-        <v>57373.608225000062</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="7">
-        <v>44770</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="15">
-        <f t="shared" si="54"/>
-        <v>57373.608225000062</v>
-      </c>
-      <c r="D251" s="15">
-        <v>3260.26</v>
-      </c>
-      <c r="F251" s="3">
-        <f t="shared" si="55"/>
-        <v>60633.868225000064</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="7">
-        <v>44771</v>
-      </c>
-      <c r="B252" t="s">
-        <v>37</v>
-      </c>
-      <c r="C252" s="2">
-        <f t="shared" si="54"/>
-        <v>60633.868225000064</v>
-      </c>
-      <c r="E252" s="2">
+      <c r="F265" s="3">
+        <f t="shared" si="39"/>
+        <v>44593.328225000063</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B266" t="s">
+        <v>43</v>
+      </c>
+      <c r="C266" s="2">
+        <f t="shared" si="38"/>
+        <v>44593.328225000063</v>
+      </c>
+      <c r="E266" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F266" s="3">
+        <f t="shared" si="39"/>
+        <v>44592.818225000061</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B267" t="s">
+        <v>49</v>
+      </c>
+      <c r="C267" s="2">
+        <f t="shared" si="38"/>
+        <v>44592.818225000061</v>
+      </c>
+      <c r="E267" s="2">
         <v>1000</v>
       </c>
-      <c r="F252" s="3">
-        <f t="shared" si="55"/>
-        <v>59633.868225000064</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="7">
-        <v>44771</v>
-      </c>
-      <c r="B253" t="s">
-        <v>38</v>
-      </c>
-      <c r="C253" s="2">
-        <f t="shared" si="54"/>
-        <v>59633.868225000064</v>
-      </c>
-      <c r="E253" s="2">
-        <v>4266.1499999999996</v>
-      </c>
-      <c r="F253" s="3">
-        <f t="shared" si="55"/>
-        <v>55367.718225000062</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="7">
-        <v>44796</v>
-      </c>
-      <c r="B254" t="s">
-        <v>37</v>
-      </c>
-      <c r="C254" s="2">
-        <f t="shared" si="54"/>
-        <v>55367.718225000062</v>
-      </c>
-      <c r="E254" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F254" s="3">
-        <f t="shared" si="55"/>
-        <v>54367.718225000062</v>
-      </c>
-      <c r="I254" s="10"/>
-    </row>
-    <row r="255" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="7">
-        <v>44797</v>
-      </c>
-      <c r="B255" t="s">
-        <v>5</v>
-      </c>
-      <c r="C255" s="2">
-        <f t="shared" si="54"/>
-        <v>54367.718225000062</v>
-      </c>
-      <c r="E255" s="2">
-        <v>450</v>
-      </c>
-      <c r="F255" s="3">
-        <f t="shared" si="55"/>
-        <v>53917.718225000062</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="7">
-        <v>44798</v>
-      </c>
-      <c r="B256" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="2">
-        <f t="shared" si="54"/>
-        <v>53917.718225000062</v>
-      </c>
-      <c r="E256" s="2">
-        <v>858</v>
-      </c>
-      <c r="F256" s="3">
-        <f t="shared" si="55"/>
-        <v>53059.718225000062</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="7">
-        <v>44798</v>
-      </c>
-      <c r="B257" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="2">
-        <f t="shared" si="54"/>
-        <v>53059.718225000062</v>
-      </c>
-      <c r="E257" s="2">
-        <v>53</v>
-      </c>
-      <c r="F257" s="3">
-        <f t="shared" si="55"/>
-        <v>53006.718225000062</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="7">
-        <v>44803</v>
-      </c>
-      <c r="B258" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="24">
-        <f t="shared" si="54"/>
-        <v>53006.718225000062</v>
-      </c>
-      <c r="D258" s="24">
-        <v>6609.3600000000006</v>
-      </c>
-      <c r="F258" s="3">
-        <f t="shared" si="55"/>
-        <v>59616.078225000063</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="7">
-        <v>44819</v>
-      </c>
-      <c r="B259" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="17">
-        <f t="shared" si="54"/>
-        <v>59616.078225000063</v>
-      </c>
-      <c r="D259" s="17">
-        <v>16168.539999999999</v>
-      </c>
-      <c r="F259" s="3">
-        <f t="shared" si="55"/>
-        <v>75784.618225000057</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="7">
-        <v>44820</v>
-      </c>
-      <c r="B260" t="s">
-        <v>17</v>
-      </c>
-      <c r="C260" s="2">
-        <f t="shared" si="54"/>
-        <v>75784.618225000057</v>
-      </c>
-      <c r="E260" s="2">
-        <v>350</v>
-      </c>
-      <c r="F260" s="3">
-        <f t="shared" si="55"/>
-        <v>75434.618225000057</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="7">
-        <v>44827</v>
-      </c>
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
-      <c r="C261" s="2">
-        <f t="shared" si="54"/>
-        <v>75434.618225000057</v>
-      </c>
-      <c r="E261" s="2">
-        <v>450</v>
-      </c>
-      <c r="F261" s="3">
-        <f t="shared" si="55"/>
-        <v>74984.618225000057</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="7">
-        <v>44827</v>
-      </c>
-      <c r="B262" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="2">
-        <f t="shared" si="54"/>
-        <v>74984.618225000057</v>
-      </c>
-      <c r="E262" s="2">
-        <v>888</v>
-      </c>
-      <c r="F262" s="3">
-        <f t="shared" si="55"/>
-        <v>74096.618225000057</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="7">
-        <v>44827</v>
-      </c>
-      <c r="B263" t="s">
-        <v>18</v>
-      </c>
-      <c r="C263" s="2">
-        <f t="shared" ref="C263:C280" si="56">F262</f>
-        <v>74096.618225000057</v>
-      </c>
-      <c r="E263" s="2">
-        <v>54</v>
-      </c>
-      <c r="F263" s="3">
-        <f t="shared" ref="F263:F280" si="57">C263+D263-E263</f>
-        <v>74042.618225000057</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="7">
-        <v>44831</v>
-      </c>
-      <c r="B264" t="s">
-        <v>37</v>
-      </c>
-      <c r="C264" s="2">
-        <f t="shared" si="56"/>
-        <v>74042.618225000057</v>
-      </c>
-      <c r="E264" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F264" s="3">
-        <f t="shared" si="57"/>
-        <v>73042.618225000057</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="7">
-        <v>44833</v>
-      </c>
-      <c r="B265" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="29">
-        <f t="shared" si="56"/>
-        <v>73042.618225000057</v>
-      </c>
-      <c r="D265" s="29">
-        <v>17949.789999999997</v>
-      </c>
-      <c r="F265" s="3">
-        <f t="shared" si="57"/>
-        <v>90992.40822500005</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="7">
-        <v>44851</v>
-      </c>
-      <c r="B266" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" s="2">
-        <f t="shared" si="56"/>
-        <v>90992.40822500005</v>
-      </c>
-      <c r="E266" s="2">
-        <v>350</v>
-      </c>
-      <c r="F266" s="3">
-        <f t="shared" si="57"/>
-        <v>90642.40822500005</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="7">
-        <v>44858</v>
-      </c>
-      <c r="B267" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="2">
-        <f t="shared" si="56"/>
-        <v>90642.40822500005</v>
-      </c>
-      <c r="E267" s="2">
-        <v>450</v>
-      </c>
       <c r="F267" s="3">
-        <f t="shared" si="57"/>
-        <v>90192.40822500005</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>43592.818225000061</v>
+      </c>
+      <c r="G267" s="3">
+        <v>43592.82</v>
+      </c>
+      <c r="H267" s="21">
+        <f>G267-F267</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7">
-        <v>44859</v>
+        <v>44760</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C268" s="2">
-        <f t="shared" si="56"/>
-        <v>90192.40822500005</v>
+        <f t="shared" si="38"/>
+        <v>43592.818225000061</v>
       </c>
       <c r="E268" s="2">
         <v>2000</v>
       </c>
       <c r="F268" s="3">
+        <f t="shared" si="39"/>
+        <v>41592.818225000061</v>
+      </c>
+      <c r="G268" s="3">
+        <v>41592.82</v>
+      </c>
+      <c r="H268" s="21">
+        <f>G268-F268</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="7">
+        <v>44762</v>
+      </c>
+      <c r="B269" t="s">
+        <v>81</v>
+      </c>
+      <c r="C269" s="2">
+        <f t="shared" si="38"/>
+        <v>41592.818225000061</v>
+      </c>
+      <c r="D269" s="2">
+        <v>3938.08</v>
+      </c>
+      <c r="F269" s="3">
+        <f t="shared" si="39"/>
+        <v>45530.898225000063</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="7">
+        <v>44762</v>
+      </c>
+      <c r="B270" t="s">
+        <v>44</v>
+      </c>
+      <c r="C270" s="2">
+        <f t="shared" si="38"/>
+        <v>45530.898225000063</v>
+      </c>
+      <c r="D270" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F270" s="3">
+        <f t="shared" si="39"/>
+        <v>48830.898225000063</v>
+      </c>
+      <c r="G270" s="3">
+        <v>48830.9</v>
+      </c>
+      <c r="H270" s="21">
+        <f>G270-F270</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="7">
+        <v>44767</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="2">
+        <f t="shared" si="38"/>
+        <v>48830.898225000063</v>
+      </c>
+      <c r="E271" s="2">
+        <v>450</v>
+      </c>
+      <c r="F271" s="3">
+        <f t="shared" si="39"/>
+        <v>48380.898225000063</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="7">
+        <v>44767</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" s="2">
+        <f t="shared" si="38"/>
+        <v>48380.898225000063</v>
+      </c>
+      <c r="E272" s="2">
+        <v>2331</v>
+      </c>
+      <c r="F272" s="3">
+        <f t="shared" si="39"/>
+        <v>46049.898225000063</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="7">
+        <v>44767</v>
+      </c>
+      <c r="B273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" si="38"/>
+        <v>46049.898225000063</v>
+      </c>
+      <c r="E273" s="2">
+        <v>57</v>
+      </c>
+      <c r="F273" s="3">
+        <f t="shared" si="39"/>
+        <v>45992.898225000063</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="7">
+        <v>44767</v>
+      </c>
+      <c r="B274" t="s">
+        <v>43</v>
+      </c>
+      <c r="C274" s="2">
+        <f t="shared" si="38"/>
+        <v>45992.898225000063</v>
+      </c>
+      <c r="E274" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F274" s="3">
+        <f t="shared" si="39"/>
+        <v>45991.368225000064</v>
+      </c>
+      <c r="G274" s="3">
+        <v>45991.37</v>
+      </c>
+      <c r="H274" s="21">
+        <f>G274-F274</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="7">
+        <v>44768</v>
+      </c>
+      <c r="B275" t="s">
+        <v>54</v>
+      </c>
+      <c r="C275" s="2">
+        <f t="shared" ref="C275:C280" si="40">F274</f>
+        <v>45991.368225000064</v>
+      </c>
+      <c r="E275" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F275" s="3">
+        <f t="shared" ref="F275:F280" si="41">C275+D275-E275</f>
+        <v>40991.368225000064</v>
+      </c>
+      <c r="G275" s="3">
+        <v>40991.370000000003</v>
+      </c>
+      <c r="H275" s="21">
+        <f>G275-F275</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="7">
+        <v>44770</v>
+      </c>
+      <c r="B276" t="s">
+        <v>51</v>
+      </c>
+      <c r="C276" s="2">
+        <f t="shared" si="40"/>
+        <v>40991.368225000064</v>
+      </c>
+      <c r="E276" s="2">
+        <v>471.95</v>
+      </c>
+      <c r="F276" s="3">
+        <f t="shared" si="41"/>
+        <v>40519.418225000067</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="7">
+        <v>44770</v>
+      </c>
+      <c r="B277" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277" s="2">
+        <f t="shared" si="40"/>
+        <v>40519.418225000067</v>
+      </c>
+      <c r="E277" s="2">
+        <v>7141.58</v>
+      </c>
+      <c r="F277" s="3">
+        <f t="shared" si="41"/>
+        <v>33377.838225000065</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="7">
+        <v>44770</v>
+      </c>
+      <c r="B278" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="2">
+        <f t="shared" si="40"/>
+        <v>33377.838225000065</v>
+      </c>
+      <c r="E278" s="2">
+        <v>643.79</v>
+      </c>
+      <c r="F278" s="3">
+        <f t="shared" si="41"/>
+        <v>32734.048225000064</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="7">
+        <v>44770</v>
+      </c>
+      <c r="B279" t="s">
+        <v>43</v>
+      </c>
+      <c r="C279" s="2">
+        <f t="shared" si="40"/>
+        <v>32734.048225000064</v>
+      </c>
+      <c r="E279" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F279" s="3">
+        <f t="shared" si="41"/>
+        <v>32732.518225000065</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="7">
+        <v>44770</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="20">
+        <f t="shared" si="40"/>
+        <v>32732.518225000065</v>
+      </c>
+      <c r="D280" s="20">
+        <v>3260.26</v>
+      </c>
+      <c r="F280" s="3">
+        <f t="shared" si="41"/>
+        <v>35992.778225000067</v>
+      </c>
+      <c r="G280" s="3">
+        <v>35992.78</v>
+      </c>
+      <c r="H280" s="21">
+        <f>G280-F280</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="7">
+        <v>44771</v>
+      </c>
+      <c r="B281" t="s">
+        <v>49</v>
+      </c>
+      <c r="C281" s="2">
+        <f t="shared" ref="C281:C291" si="42">F280</f>
+        <v>35992.778225000067</v>
+      </c>
+      <c r="E281" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F281" s="3">
+        <f t="shared" ref="F281:F291" si="43">C281+D281-E281</f>
+        <v>34992.778225000067</v>
+      </c>
+      <c r="G281" s="3">
+        <v>34992.78</v>
+      </c>
+      <c r="H281" s="21">
+        <f>G281-F281</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="7">
+        <v>44774</v>
+      </c>
+      <c r="B282" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282" s="2">
+        <f t="shared" si="42"/>
+        <v>34992.778225000067</v>
+      </c>
+      <c r="E282" s="2">
+        <v>4266.1499999999996</v>
+      </c>
+      <c r="F282" s="3">
+        <f t="shared" si="43"/>
+        <v>30726.628225000066</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="7">
+        <v>44774</v>
+      </c>
+      <c r="B283" t="s">
+        <v>43</v>
+      </c>
+      <c r="C283" s="2">
+        <f t="shared" si="42"/>
+        <v>30726.628225000066</v>
+      </c>
+      <c r="E283" s="2">
+        <v>76</v>
+      </c>
+      <c r="F283" s="3">
+        <f t="shared" si="43"/>
+        <v>30650.628225000066</v>
+      </c>
+      <c r="G283" s="3">
+        <v>30650.63</v>
+      </c>
+      <c r="H283" s="21">
+        <f>G283-F283</f>
+        <v>1.774999935150845E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="7">
+        <v>44776</v>
+      </c>
+      <c r="B284" t="s">
+        <v>49</v>
+      </c>
+      <c r="C284" s="2">
+        <f t="shared" si="42"/>
+        <v>30650.628225000066</v>
+      </c>
+      <c r="E284" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F284" s="3">
+        <f t="shared" si="43"/>
+        <v>29150.628225000066</v>
+      </c>
+      <c r="G284" s="3">
+        <v>29150.63</v>
+      </c>
+      <c r="H284" s="21">
+        <f>G284-F284</f>
+        <v>1.774999935150845E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="7">
+        <v>44777</v>
+      </c>
+      <c r="B285" t="s">
+        <v>44</v>
+      </c>
+      <c r="C285" s="2">
+        <f t="shared" si="42"/>
+        <v>29150.628225000066</v>
+      </c>
+      <c r="D285" s="2">
+        <v>3770.66</v>
+      </c>
+      <c r="F285" s="3">
+        <f t="shared" si="43"/>
+        <v>32921.288225000069</v>
+      </c>
+      <c r="G285" s="3">
+        <v>32921.29</v>
+      </c>
+      <c r="H285" s="21">
+        <f>G285-F285</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="7">
+        <v>44778</v>
+      </c>
+      <c r="B286" t="s">
+        <v>45</v>
+      </c>
+      <c r="C286" s="2">
+        <f t="shared" si="42"/>
+        <v>32921.288225000069</v>
+      </c>
+      <c r="E286" s="2">
+        <v>547.4</v>
+      </c>
+      <c r="F286" s="3">
+        <f t="shared" si="43"/>
+        <v>32373.888225000068</v>
+      </c>
+      <c r="I286" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="7">
+        <v>44778</v>
+      </c>
+      <c r="B287" t="s">
+        <v>43</v>
+      </c>
+      <c r="C287" s="2">
+        <f t="shared" si="42"/>
+        <v>32373.888225000068</v>
+      </c>
+      <c r="E287" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F287" s="3">
+        <f t="shared" si="43"/>
+        <v>32373.37822500007</v>
+      </c>
+      <c r="G287" s="3">
+        <v>32373.38</v>
+      </c>
+      <c r="H287" s="21">
+        <f>G287-F287</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="7">
+        <v>44781</v>
+      </c>
+      <c r="B288" t="s">
+        <v>50</v>
+      </c>
+      <c r="C288" s="2">
+        <f t="shared" si="42"/>
+        <v>32373.37822500007</v>
+      </c>
+      <c r="E288" s="2">
+        <v>423.06</v>
+      </c>
+      <c r="F288" s="3">
+        <f t="shared" si="43"/>
+        <v>31950.318225000068</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="7">
+        <v>44781</v>
+      </c>
+      <c r="B289" t="s">
+        <v>43</v>
+      </c>
+      <c r="C289" s="2">
+        <f t="shared" si="42"/>
+        <v>31950.318225000068</v>
+      </c>
+      <c r="E289" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F289" s="3">
+        <f t="shared" si="43"/>
+        <v>31949.80822500007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="7">
+        <v>44781</v>
+      </c>
+      <c r="B290" t="s">
+        <v>49</v>
+      </c>
+      <c r="C290" s="2">
+        <f t="shared" si="42"/>
+        <v>31949.80822500007</v>
+      </c>
+      <c r="E290" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F290" s="3">
+        <f t="shared" si="43"/>
+        <v>30449.80822500007</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="7">
+        <v>44781</v>
+      </c>
+      <c r="B291" t="s">
+        <v>61</v>
+      </c>
+      <c r="C291" s="2">
+        <f t="shared" si="42"/>
+        <v>30449.80822500007</v>
+      </c>
+      <c r="D291" s="2">
+        <v>3529.94</v>
+      </c>
+      <c r="F291" s="3">
+        <f t="shared" si="43"/>
+        <v>33979.748225000068</v>
+      </c>
+      <c r="G291" s="3">
+        <v>33979.75</v>
+      </c>
+      <c r="H291" s="21">
+        <f>G291-F291</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="7">
+        <v>44784</v>
+      </c>
+      <c r="B292" t="s">
+        <v>51</v>
+      </c>
+      <c r="C292" s="2">
+        <f t="shared" ref="C292:C300" si="44">F291</f>
+        <v>33979.748225000068</v>
+      </c>
+      <c r="E292" s="2">
+        <v>1552.3899999999999</v>
+      </c>
+      <c r="F292" s="3">
+        <f t="shared" ref="F292:F300" si="45">C292+D292-E292</f>
+        <v>32427.358225000069</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="7">
+        <v>44784</v>
+      </c>
+      <c r="B293" t="s">
+        <v>39</v>
+      </c>
+      <c r="C293" s="2">
+        <f t="shared" si="44"/>
+        <v>32427.358225000069</v>
+      </c>
+      <c r="E293" s="2">
+        <v>416.08</v>
+      </c>
+      <c r="F293" s="3">
+        <f t="shared" si="45"/>
+        <v>32011.278225000067</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="7">
+        <v>44784</v>
+      </c>
+      <c r="B294" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="2">
+        <f t="shared" si="44"/>
+        <v>32011.278225000067</v>
+      </c>
+      <c r="E294" s="2">
+        <f>2*0.51</f>
+        <v>1.02</v>
+      </c>
+      <c r="F294" s="3">
+        <f t="shared" si="45"/>
+        <v>32010.258225000067</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="7">
+        <v>44784</v>
+      </c>
+      <c r="B295" t="s">
+        <v>49</v>
+      </c>
+      <c r="C295" s="2">
+        <f t="shared" si="44"/>
+        <v>32010.258225000067</v>
+      </c>
+      <c r="E295" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F295" s="3">
+        <f t="shared" si="45"/>
+        <v>31010.258225000067</v>
+      </c>
+      <c r="G295" s="3">
+        <v>31010.26</v>
+      </c>
+      <c r="H295" s="21">
+        <f>G295-F295</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="7">
+        <v>44785</v>
+      </c>
+      <c r="B296" t="s">
+        <v>49</v>
+      </c>
+      <c r="C296" s="2">
+        <f t="shared" si="44"/>
+        <v>31010.258225000067</v>
+      </c>
+      <c r="E296" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F296" s="3">
+        <f t="shared" si="45"/>
+        <v>30010.258225000067</v>
+      </c>
+      <c r="G296" s="3">
+        <v>30010.26</v>
+      </c>
+      <c r="H296" s="21">
+        <f>G296-F296</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="7">
+        <v>44789</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" s="2">
+        <f t="shared" si="44"/>
+        <v>30010.258225000067</v>
+      </c>
+      <c r="E297" s="2">
+        <v>1305.03</v>
+      </c>
+      <c r="F297" s="3">
+        <f t="shared" si="45"/>
+        <v>28705.228225000068</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="7">
+        <v>44789</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="2">
+        <f t="shared" si="44"/>
+        <v>28705.228225000068</v>
+      </c>
+      <c r="E298" s="2">
+        <v>392.9</v>
+      </c>
+      <c r="F298" s="3">
+        <f t="shared" si="45"/>
+        <v>28312.328225000067</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="7">
+        <v>44789</v>
+      </c>
+      <c r="B299" t="s">
+        <v>37</v>
+      </c>
+      <c r="C299" s="2">
+        <f t="shared" si="44"/>
+        <v>28312.328225000067</v>
+      </c>
+      <c r="E299" s="2">
+        <f>1040.83+220.47</f>
+        <v>1261.3</v>
+      </c>
+      <c r="F299" s="3">
+        <f t="shared" si="45"/>
+        <v>27051.028225000067</v>
+      </c>
+      <c r="I299" s="10"/>
+    </row>
+    <row r="300" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="7">
+        <v>44789</v>
+      </c>
+      <c r="B300" t="s">
+        <v>43</v>
+      </c>
+      <c r="C300" s="2">
+        <f t="shared" si="44"/>
+        <v>27051.028225000067</v>
+      </c>
+      <c r="E300" s="2">
+        <f>2*0.51</f>
+        <v>1.02</v>
+      </c>
+      <c r="F300" s="3">
+        <f t="shared" si="45"/>
+        <v>27050.008225000067</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="7">
+        <v>44789</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="20">
+        <f t="shared" ref="C301:C329" si="46">F300</f>
+        <v>27050.008225000067</v>
+      </c>
+      <c r="D301" s="20">
+        <v>6609.3600000000006</v>
+      </c>
+      <c r="F301" s="3">
+        <f t="shared" ref="F301:F329" si="47">C301+D301-E301</f>
+        <v>33659.368225000071</v>
+      </c>
+      <c r="G301" s="3">
+        <v>33659.370000000003</v>
+      </c>
+      <c r="H301" s="21">
+        <f>G301-F301</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="7">
+        <v>44795</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" s="2">
+        <f t="shared" si="46"/>
+        <v>33659.368225000071</v>
+      </c>
+      <c r="E302" s="2">
+        <v>725.31</v>
+      </c>
+      <c r="F302" s="3">
+        <f t="shared" si="47"/>
+        <v>32934.058225000073</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="7">
+        <v>44795</v>
+      </c>
+      <c r="B303" t="s">
+        <v>43</v>
+      </c>
+      <c r="C303" s="2">
+        <f t="shared" si="46"/>
+        <v>32934.058225000073</v>
+      </c>
+      <c r="E303" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F303" s="3">
+        <f t="shared" si="47"/>
+        <v>32933.548225000071</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="7">
+        <v>44795</v>
+      </c>
+      <c r="B304" t="s">
+        <v>49</v>
+      </c>
+      <c r="C304" s="2">
+        <f t="shared" si="46"/>
+        <v>32933.548225000071</v>
+      </c>
+      <c r="E304" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F304" s="3">
+        <f t="shared" si="47"/>
+        <v>31933.548225000071</v>
+      </c>
+      <c r="G304" s="3">
+        <v>31933.55</v>
+      </c>
+      <c r="H304" s="21">
+        <f>G304-F304</f>
+        <v>1.7749999278748874E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="7">
+        <v>44797</v>
+      </c>
+      <c r="B305" t="s">
+        <v>51</v>
+      </c>
+      <c r="C305" s="2">
+        <f t="shared" si="46"/>
+        <v>31933.548225000071</v>
+      </c>
+      <c r="E305" s="2">
+        <v>4741.5</v>
+      </c>
+      <c r="F305" s="3">
+        <f t="shared" si="47"/>
+        <v>27192.048225000071</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="7">
+        <v>44797</v>
+      </c>
+      <c r="B306" t="s">
+        <v>54</v>
+      </c>
+      <c r="C306" s="2">
+        <f t="shared" si="46"/>
+        <v>27192.048225000071</v>
+      </c>
+      <c r="E306" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F306" s="3">
+        <f t="shared" si="47"/>
+        <v>22192.048225000071</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="7">
+        <v>44797</v>
+      </c>
+      <c r="B307" t="s">
+        <v>43</v>
+      </c>
+      <c r="C307" s="2">
+        <f t="shared" si="46"/>
+        <v>22192.048225000071</v>
+      </c>
+      <c r="E307" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F307" s="3">
+        <f t="shared" si="47"/>
+        <v>22191.538225000073</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="7">
+        <v>44797</v>
+      </c>
+      <c r="B308" t="s">
+        <v>49</v>
+      </c>
+      <c r="C308" s="2">
+        <f t="shared" si="46"/>
+        <v>22191.538225000073</v>
+      </c>
+      <c r="E308" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F308" s="3">
+        <f t="shared" si="47"/>
+        <v>21191.538225000073</v>
+      </c>
+      <c r="G308" s="3">
+        <v>21191.54</v>
+      </c>
+      <c r="H308" s="21">
+        <f>G308-F308</f>
+        <v>1.7749999278748874E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="7">
+        <v>44798</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" si="46"/>
+        <v>21191.538225000073</v>
+      </c>
+      <c r="E309" s="2">
+        <v>450</v>
+      </c>
+      <c r="F309" s="3">
+        <f t="shared" si="47"/>
+        <v>20741.538225000073</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="7">
+        <v>44798</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="2">
+        <f t="shared" si="46"/>
+        <v>20741.538225000073</v>
+      </c>
+      <c r="E310" s="2">
+        <v>958</v>
+      </c>
+      <c r="F310" s="3">
+        <f t="shared" si="47"/>
+        <v>19783.538225000073</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="7">
+        <v>44798</v>
+      </c>
+      <c r="B311" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" s="2">
+        <f t="shared" si="46"/>
+        <v>19783.538225000073</v>
+      </c>
+      <c r="E311" s="2">
+        <v>57</v>
+      </c>
+      <c r="F311" s="3">
+        <f t="shared" si="47"/>
+        <v>19726.538225000073</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="7">
+        <v>44798</v>
+      </c>
+      <c r="B312" t="s">
+        <v>52</v>
+      </c>
+      <c r="C312" s="2">
+        <f t="shared" si="46"/>
+        <v>19726.538225000073</v>
+      </c>
+      <c r="E312" s="2">
+        <v>339.85</v>
+      </c>
+      <c r="F312" s="3">
+        <f t="shared" si="47"/>
+        <v>19386.688225000074</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="7">
+        <v>44798</v>
+      </c>
+      <c r="B313" t="s">
+        <v>43</v>
+      </c>
+      <c r="C313" s="2">
+        <f t="shared" si="46"/>
+        <v>19386.688225000074</v>
+      </c>
+      <c r="E313" s="2">
+        <f>4*0.51</f>
+        <v>2.04</v>
+      </c>
+      <c r="F313" s="3">
+        <f t="shared" si="47"/>
+        <v>19384.648225000074</v>
+      </c>
+      <c r="G313" s="3">
+        <v>19384.650000000001</v>
+      </c>
+      <c r="H313" s="21">
+        <f>G313-F313</f>
+        <v>1.7749999278748874E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="7">
+        <v>44799</v>
+      </c>
+      <c r="B314" t="s">
+        <v>39</v>
+      </c>
+      <c r="C314" s="2">
+        <f t="shared" si="46"/>
+        <v>19384.648225000074</v>
+      </c>
+      <c r="E314" s="2">
+        <v>400.91</v>
+      </c>
+      <c r="F314" s="3">
+        <f t="shared" si="47"/>
+        <v>18983.738225000074</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="7">
+        <v>44799</v>
+      </c>
+      <c r="B315" t="s">
+        <v>85</v>
+      </c>
+      <c r="C315" s="2">
+        <f t="shared" si="46"/>
+        <v>18983.738225000074</v>
+      </c>
+      <c r="D315" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" si="47"/>
+        <v>28983.738225000074</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="7">
+        <v>44799</v>
+      </c>
+      <c r="B316" t="s">
+        <v>43</v>
+      </c>
+      <c r="C316" s="2">
+        <f t="shared" si="46"/>
+        <v>28983.738225000074</v>
+      </c>
+      <c r="E316" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F316" s="3">
+        <f t="shared" si="47"/>
+        <v>28983.228225000075</v>
+      </c>
+      <c r="G316" s="3">
+        <v>28983.23</v>
+      </c>
+      <c r="H316" s="21">
+        <f>G316-F316</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="7">
+        <v>44802</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="20">
+        <f t="shared" si="46"/>
+        <v>28983.228225000075</v>
+      </c>
+      <c r="D317" s="20">
+        <v>21838.3</v>
+      </c>
+      <c r="F317" s="3">
+        <f t="shared" si="47"/>
+        <v>50821.528225000075</v>
+      </c>
+      <c r="G317" s="3">
+        <v>50821.53</v>
+      </c>
+      <c r="H317" s="21">
+        <f>G317-F317</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="7">
+        <v>44804</v>
+      </c>
+      <c r="B318" t="s">
+        <v>61</v>
+      </c>
+      <c r="C318" s="2">
+        <f t="shared" si="46"/>
+        <v>50821.528225000075</v>
+      </c>
+      <c r="D318" s="2">
+        <v>3935.14</v>
+      </c>
+      <c r="F318" s="3">
+        <f t="shared" si="47"/>
+        <v>54756.668225000074</v>
+      </c>
+      <c r="G318" s="3">
+        <v>54756.67</v>
+      </c>
+      <c r="H318" s="21">
+        <f>G318-F318</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="7">
+        <v>44805</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" s="2">
+        <f t="shared" si="46"/>
+        <v>54756.668225000074</v>
+      </c>
+      <c r="E319" s="2">
+        <v>76</v>
+      </c>
+      <c r="F319" s="3">
+        <f t="shared" si="47"/>
+        <v>54680.668225000074</v>
+      </c>
+      <c r="G319" s="3">
+        <v>54680.67</v>
+      </c>
+      <c r="H319" s="21">
+        <f>G319-F319</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="7">
+        <v>44809</v>
+      </c>
+      <c r="B320" t="s">
+        <v>44</v>
+      </c>
+      <c r="C320" s="2">
+        <f t="shared" si="46"/>
+        <v>54680.668225000074</v>
+      </c>
+      <c r="D320" s="2">
+        <f>3412.28+6739.69</f>
+        <v>10151.969999999999</v>
+      </c>
+      <c r="F320" s="3">
+        <f t="shared" si="47"/>
+        <v>64832.638225000075</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="7">
+        <v>44809</v>
+      </c>
+      <c r="B321" t="s">
+        <v>85</v>
+      </c>
+      <c r="C321" s="2">
+        <f t="shared" si="46"/>
+        <v>64832.638225000075</v>
+      </c>
+      <c r="E321" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F321" s="3">
+        <f t="shared" si="47"/>
+        <v>54832.638225000075</v>
+      </c>
+      <c r="G321" s="3">
+        <v>54832.639999999999</v>
+      </c>
+      <c r="H321" s="21">
+        <f>G321-F321</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="7">
+        <v>44810</v>
+      </c>
+      <c r="B322" t="s">
+        <v>49</v>
+      </c>
+      <c r="C322" s="2">
+        <f t="shared" si="46"/>
+        <v>54832.638225000075</v>
+      </c>
+      <c r="E322" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F322" s="3">
+        <f t="shared" si="47"/>
+        <v>53332.638225000075</v>
+      </c>
+      <c r="G322" s="3">
+        <v>53332.639999999999</v>
+      </c>
+      <c r="H322" s="21">
+        <f>G322-F322</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="7">
+        <v>44813</v>
+      </c>
+      <c r="B323" t="s">
+        <v>39</v>
+      </c>
+      <c r="C323" s="2">
+        <f t="shared" si="46"/>
+        <v>53332.638225000075</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1900.79</v>
+      </c>
+      <c r="F323" s="3">
+        <f t="shared" si="47"/>
+        <v>51431.848225000074</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="7">
+        <v>44813</v>
+      </c>
+      <c r="B324" t="s">
+        <v>43</v>
+      </c>
+      <c r="C324" s="2">
+        <f t="shared" si="46"/>
+        <v>51431.848225000074</v>
+      </c>
+      <c r="E324" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F324" s="3">
+        <f t="shared" si="47"/>
+        <v>51431.338225000072</v>
+      </c>
+      <c r="G324" s="3">
+        <v>51431.34</v>
+      </c>
+      <c r="H324" s="21">
+        <f>G324-F324</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="7">
+        <v>44816</v>
+      </c>
+      <c r="B325" t="s">
+        <v>51</v>
+      </c>
+      <c r="C325" s="2">
+        <f t="shared" si="46"/>
+        <v>51431.338225000072</v>
+      </c>
+      <c r="E325" s="2">
+        <v>152.35</v>
+      </c>
+      <c r="F325" s="3">
+        <f t="shared" si="47"/>
+        <v>51278.988225000074</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="7">
+        <v>44816</v>
+      </c>
+      <c r="B326" t="s">
+        <v>43</v>
+      </c>
+      <c r="C326" s="2">
+        <f t="shared" si="46"/>
+        <v>51278.988225000074</v>
+      </c>
+      <c r="E326" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F326" s="3">
+        <f t="shared" si="47"/>
+        <v>51278.478225000072</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="7">
+        <v>44816</v>
+      </c>
+      <c r="B327" t="s">
+        <v>44</v>
+      </c>
+      <c r="C327" s="2">
+        <f t="shared" si="46"/>
+        <v>51278.478225000072</v>
+      </c>
+      <c r="D327" s="2">
+        <f>3299.62+2680.8</f>
+        <v>5980.42</v>
+      </c>
+      <c r="F327" s="3">
+        <f t="shared" si="47"/>
+        <v>57258.89822500007</v>
+      </c>
+      <c r="G327" s="3">
+        <v>57258.9</v>
+      </c>
+      <c r="H327" s="21">
+        <f>G327-F327</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="7">
+        <v>44818</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="20">
+        <f t="shared" si="46"/>
+        <v>57258.89822500007</v>
+      </c>
+      <c r="D328" s="20">
+        <v>17949.789999999997</v>
+      </c>
+      <c r="F328" s="3">
+        <f t="shared" si="47"/>
+        <v>75208.688225000064</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="7">
+        <v>44818</v>
+      </c>
+      <c r="B329" t="s">
+        <v>49</v>
+      </c>
+      <c r="C329" s="2">
+        <f t="shared" si="46"/>
+        <v>75208.688225000064</v>
+      </c>
+      <c r="E329" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F329" s="3">
+        <f t="shared" si="47"/>
+        <v>72208.688225000064</v>
+      </c>
+      <c r="G329" s="3">
+        <v>72208.69</v>
+      </c>
+      <c r="H329" s="21">
+        <f>G329-F329</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B330" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" s="2">
+        <f t="shared" ref="C330:C333" si="48">F329</f>
+        <v>72208.688225000064</v>
+      </c>
+      <c r="E330" s="2">
+        <v>359.73</v>
+      </c>
+      <c r="F330" s="3">
+        <f t="shared" ref="F330:F333" si="49">C330+D330-E330</f>
+        <v>71848.958225000068</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B331" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331" s="2">
+        <f t="shared" si="48"/>
+        <v>71848.958225000068</v>
+      </c>
+      <c r="E331" s="2">
+        <v>1671.24</v>
+      </c>
+      <c r="F331" s="3">
+        <f t="shared" si="49"/>
+        <v>70177.718225000062</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B332" t="s">
+        <v>80</v>
+      </c>
+      <c r="C332" s="2">
+        <f t="shared" si="48"/>
+        <v>70177.718225000062</v>
+      </c>
+      <c r="E332" s="2">
+        <v>1491.13</v>
+      </c>
+      <c r="F332" s="3">
+        <f t="shared" si="49"/>
+        <v>68686.588225000058</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B333" t="s">
+        <v>43</v>
+      </c>
+      <c r="C333" s="2">
+        <f t="shared" si="48"/>
+        <v>68686.588225000058</v>
+      </c>
+      <c r="E333" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F333" s="3">
+        <f t="shared" si="49"/>
+        <v>68686.078225000063</v>
+      </c>
+      <c r="G333" s="3">
+        <v>68686.080000000002</v>
+      </c>
+      <c r="H333" s="21">
+        <f>G333-F333</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B334" t="s">
+        <v>37</v>
+      </c>
+      <c r="C334" s="2">
+        <f t="shared" ref="C334:C335" si="50">F333</f>
+        <v>68686.078225000063</v>
+      </c>
+      <c r="E334" s="2">
+        <f>1455.55+195.3</f>
+        <v>1650.85</v>
+      </c>
+      <c r="F334" s="3">
+        <f t="shared" ref="F334:F335" si="51">C334+D334-E334</f>
+        <v>67035.228225000057</v>
+      </c>
+      <c r="I334" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B335" t="s">
+        <v>43</v>
+      </c>
+      <c r="C335" s="2">
+        <f t="shared" si="50"/>
+        <v>67035.228225000057</v>
+      </c>
+      <c r="E335" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F335" s="3">
+        <f t="shared" si="51"/>
+        <v>67034.718225000062</v>
+      </c>
+      <c r="G335" s="3">
+        <v>67034.720000000001</v>
+      </c>
+      <c r="H335" s="21">
+        <f>G335-F335</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="7">
+        <v>44824</v>
+      </c>
+      <c r="B336" t="s">
+        <v>50</v>
+      </c>
+      <c r="C336" s="2">
+        <f t="shared" ref="C336:C339" si="52">F335</f>
+        <v>67034.718225000062</v>
+      </c>
+      <c r="E336" s="2">
+        <v>1414.61</v>
+      </c>
+      <c r="F336" s="3">
+        <f t="shared" ref="F336:F339" si="53">C336+D336-E336</f>
+        <v>65620.108225000062</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="7">
+        <v>44824</v>
+      </c>
+      <c r="B337" t="s">
+        <v>43</v>
+      </c>
+      <c r="C337" s="2">
+        <f t="shared" si="52"/>
+        <v>65620.108225000062</v>
+      </c>
+      <c r="E337" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F337" s="3">
+        <f t="shared" si="53"/>
+        <v>65619.598225000067</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="7">
+        <v>44824</v>
+      </c>
+      <c r="B338" t="s">
+        <v>49</v>
+      </c>
+      <c r="C338" s="2">
+        <f t="shared" si="52"/>
+        <v>65619.598225000067</v>
+      </c>
+      <c r="E338" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F338" s="3">
+        <f t="shared" si="53"/>
+        <v>63619.598225000067</v>
+      </c>
+      <c r="G338" s="3">
+        <v>63619.6</v>
+      </c>
+      <c r="H338" s="21">
+        <f>G338-F338</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="7">
+        <v>44825</v>
+      </c>
+      <c r="B339" t="s">
+        <v>49</v>
+      </c>
+      <c r="C339" s="2">
+        <f t="shared" si="52"/>
+        <v>63619.598225000067</v>
+      </c>
+      <c r="E339" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F339" s="3">
+        <f t="shared" si="53"/>
+        <v>61619.598225000067</v>
+      </c>
+      <c r="G339" s="3">
+        <v>61619.6</v>
+      </c>
+      <c r="H339" s="21">
+        <f>G339-F339</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="7">
+        <v>44827</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" s="2">
+        <f t="shared" ref="C340:C345" si="54">F339</f>
+        <v>61619.598225000067</v>
+      </c>
+      <c r="E340" s="2">
+        <v>450</v>
+      </c>
+      <c r="F340" s="3">
+        <f t="shared" ref="F340:F345" si="55">C340+D340-E340</f>
+        <v>61169.598225000067</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="7">
+        <v>44827</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" s="2">
+        <f t="shared" si="54"/>
+        <v>61169.598225000067</v>
+      </c>
+      <c r="E341" s="2">
+        <v>2052</v>
+      </c>
+      <c r="F341" s="3">
+        <f t="shared" si="55"/>
+        <v>59117.598225000067</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="7">
+        <v>44827</v>
+      </c>
+      <c r="B342" t="s">
+        <v>18</v>
+      </c>
+      <c r="C342" s="2">
+        <f t="shared" si="54"/>
+        <v>59117.598225000067</v>
+      </c>
+      <c r="E342" s="2">
+        <v>115</v>
+      </c>
+      <c r="F342" s="3">
+        <f t="shared" si="55"/>
+        <v>59002.598225000067</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="7">
+        <v>44827</v>
+      </c>
+      <c r="B343" t="s">
+        <v>54</v>
+      </c>
+      <c r="C343" s="2">
+        <f t="shared" si="54"/>
+        <v>59002.598225000067</v>
+      </c>
+      <c r="E343" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F343" s="3">
+        <f t="shared" si="55"/>
+        <v>54002.598225000067</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="7">
+        <v>44827</v>
+      </c>
+      <c r="B344" t="s">
+        <v>43</v>
+      </c>
+      <c r="C344" s="2">
+        <f t="shared" si="54"/>
+        <v>54002.598225000067</v>
+      </c>
+      <c r="E344" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F344" s="3">
+        <f t="shared" si="55"/>
+        <v>54001.068225000068</v>
+      </c>
+      <c r="G344" s="3">
+        <v>54001.07</v>
+      </c>
+      <c r="H344" s="21">
+        <f>G344-F344</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="7">
+        <v>44831</v>
+      </c>
+      <c r="B345" t="s">
+        <v>38</v>
+      </c>
+      <c r="C345" s="2">
+        <f t="shared" si="54"/>
+        <v>54001.068225000068</v>
+      </c>
+      <c r="E345" s="2">
+        <v>2208.34</v>
+      </c>
+      <c r="F345" s="3">
+        <f t="shared" si="55"/>
+        <v>51792.728225000072</v>
+      </c>
+      <c r="G345" s="3">
+        <v>51792.73</v>
+      </c>
+      <c r="H345" s="21">
+        <f>G345-F345</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="7">
+        <v>44832</v>
+      </c>
+      <c r="B346" t="s">
+        <v>88</v>
+      </c>
+      <c r="C346" s="2">
+        <f t="shared" ref="C346:C350" si="56">F345</f>
+        <v>51792.728225000072</v>
+      </c>
+      <c r="E346" s="2">
+        <v>1653</v>
+      </c>
+      <c r="F346" s="3">
+        <f t="shared" ref="F346:F350" si="57">C346+D346-E346</f>
+        <v>50139.728225000072</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="7">
+        <v>44832</v>
+      </c>
+      <c r="B347" t="s">
+        <v>43</v>
+      </c>
+      <c r="C347" s="2">
+        <f t="shared" si="56"/>
+        <v>50139.728225000072</v>
+      </c>
+      <c r="E347" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F347" s="3">
         <f t="shared" si="57"/>
-        <v>88192.40822500005</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="7">
+        <v>50139.21822500007</v>
+      </c>
+      <c r="G347" s="3">
+        <v>50139.22</v>
+      </c>
+      <c r="H347" s="21">
+        <f>G347-F347</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="7">
+        <v>44833</v>
+      </c>
+      <c r="B348" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" s="2">
+        <f t="shared" si="56"/>
+        <v>50139.21822500007</v>
+      </c>
+      <c r="E348" s="2">
+        <v>1295.8499999999999</v>
+      </c>
+      <c r="F348" s="3">
+        <f t="shared" si="57"/>
+        <v>48843.368225000071</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="7">
+        <v>44833</v>
+      </c>
+      <c r="B349" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="20">
+        <f t="shared" si="56"/>
+        <v>48843.368225000071</v>
+      </c>
+      <c r="D349" s="20">
+        <v>13595.56</v>
+      </c>
+      <c r="F349" s="3">
+        <f t="shared" si="57"/>
+        <v>62438.928225000069</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="7">
+        <v>44833</v>
+      </c>
+      <c r="B350" t="s">
+        <v>43</v>
+      </c>
+      <c r="C350" s="2">
+        <f t="shared" si="56"/>
+        <v>62438.928225000069</v>
+      </c>
+      <c r="E350" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F350" s="3">
+        <f t="shared" si="57"/>
+        <v>62438.418225000067</v>
+      </c>
+      <c r="G350" s="3">
+        <v>62438.42</v>
+      </c>
+      <c r="H350" s="21">
+        <f>G350-F350</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="7">
+        <v>44834</v>
+      </c>
+      <c r="B351" t="s">
+        <v>39</v>
+      </c>
+      <c r="C351" s="2">
+        <f t="shared" ref="C351:C352" si="58">F350</f>
+        <v>62438.418225000067</v>
+      </c>
+      <c r="E351" s="2">
+        <v>356.52</v>
+      </c>
+      <c r="F351" s="3">
+        <f t="shared" ref="F351:F352" si="59">C351+D351-E351</f>
+        <v>62081.89822500007</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="7">
+        <v>44834</v>
+      </c>
+      <c r="B352" t="s">
+        <v>43</v>
+      </c>
+      <c r="C352" s="2">
+        <f t="shared" si="58"/>
+        <v>62081.89822500007</v>
+      </c>
+      <c r="E352" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F352" s="3">
+        <f t="shared" si="59"/>
+        <v>62081.388225000068</v>
+      </c>
+      <c r="G352" s="3">
+        <v>62081.39</v>
+      </c>
+      <c r="H352" s="21">
+        <f>G352-F352</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="7">
+        <v>44835</v>
+      </c>
+      <c r="B353" t="s">
+        <v>43</v>
+      </c>
+      <c r="C353" s="2">
+        <f t="shared" ref="C353" si="60">F352</f>
+        <v>62081.388225000068</v>
+      </c>
+      <c r="E353" s="2">
+        <v>76</v>
+      </c>
+      <c r="F353" s="3">
+        <f t="shared" ref="F353" si="61">C353+D353-E353</f>
+        <v>62005.388225000068</v>
+      </c>
+      <c r="G353" s="3">
+        <v>62005.39</v>
+      </c>
+      <c r="H353" s="21">
+        <f>G353-F353</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="7">
+        <v>44837</v>
+      </c>
+      <c r="B354" t="s">
+        <v>88</v>
+      </c>
+      <c r="C354" s="2">
+        <f t="shared" ref="C354:C357" si="62">F353</f>
+        <v>62005.388225000068</v>
+      </c>
+      <c r="E354" s="2">
+        <v>196.98</v>
+      </c>
+      <c r="F354" s="3">
+        <f t="shared" ref="F354:F357" si="63">C354+D354-E354</f>
+        <v>61808.408225000065</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="7">
+        <v>44837</v>
+      </c>
+      <c r="B355" t="s">
+        <v>43</v>
+      </c>
+      <c r="C355" s="2">
+        <f t="shared" si="62"/>
+        <v>61808.408225000065</v>
+      </c>
+      <c r="E355" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F355" s="3">
+        <f t="shared" si="63"/>
+        <v>61807.898225000063</v>
+      </c>
+      <c r="G355" s="3">
+        <v>61807.9</v>
+      </c>
+      <c r="H355" s="21">
+        <f>G355-F355</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="7">
+        <v>44839</v>
+      </c>
+      <c r="B356" t="s">
+        <v>51</v>
+      </c>
+      <c r="C356" s="2">
+        <f t="shared" si="62"/>
+        <v>61807.898225000063</v>
+      </c>
+      <c r="E356" s="2">
+        <v>1617.52</v>
+      </c>
+      <c r="F356" s="3">
+        <f t="shared" si="63"/>
+        <v>60190.378225000066</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="7">
+        <v>44839</v>
+      </c>
+      <c r="B357" t="s">
+        <v>43</v>
+      </c>
+      <c r="C357" s="2">
+        <f t="shared" si="62"/>
+        <v>60190.378225000066</v>
+      </c>
+      <c r="E357" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F357" s="3">
+        <f t="shared" si="63"/>
+        <v>60189.868225000064</v>
+      </c>
+      <c r="G357" s="3">
+        <v>60189.87</v>
+      </c>
+      <c r="H357" s="21">
+        <f>G357-F357</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="7">
+        <v>44841</v>
+      </c>
+      <c r="B358" t="s">
+        <v>61</v>
+      </c>
+      <c r="C358" s="2">
+        <f t="shared" ref="C358:C360" si="64">F357</f>
+        <v>60189.868225000064</v>
+      </c>
+      <c r="D358" s="2">
+        <v>4187.97</v>
+      </c>
+      <c r="F358" s="3">
+        <f t="shared" ref="F358:F360" si="65">C358+D358-E358</f>
+        <v>64377.838225000065</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="7">
+        <v>44841</v>
+      </c>
+      <c r="B359" t="s">
+        <v>123</v>
+      </c>
+      <c r="C359" s="2">
+        <f t="shared" si="64"/>
+        <v>64377.838225000065</v>
+      </c>
+      <c r="E359" s="2">
+        <v>692.68</v>
+      </c>
+      <c r="F359" s="3">
+        <f t="shared" si="65"/>
+        <v>63685.158225000065</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="7">
+        <v>44841</v>
+      </c>
+      <c r="B360" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360" s="2">
+        <f t="shared" si="64"/>
+        <v>63685.158225000065</v>
+      </c>
+      <c r="E360" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F360" s="3">
+        <f t="shared" si="65"/>
+        <v>63684.648225000063</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="7">
+        <v>44841</v>
+      </c>
+      <c r="B361" t="s">
+        <v>49</v>
+      </c>
+      <c r="C361" s="2">
+        <f t="shared" ref="C361" si="66">F360</f>
+        <v>63684.648225000063</v>
+      </c>
+      <c r="E361" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F361" s="3">
+        <f t="shared" ref="F361" si="67">C361+D361-E361</f>
+        <v>62684.648225000063</v>
+      </c>
+      <c r="G361" s="3">
+        <v>62684.65</v>
+      </c>
+      <c r="H361" s="21">
+        <f>G361-F361</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="7">
+        <v>44845</v>
+      </c>
+      <c r="B362" t="s">
+        <v>50</v>
+      </c>
+      <c r="C362" s="2">
+        <f t="shared" ref="C362:C363" si="68">F361</f>
+        <v>62684.648225000063</v>
+      </c>
+      <c r="E362" s="2">
+        <v>6704.09</v>
+      </c>
+      <c r="F362" s="3">
+        <f t="shared" ref="F362:F363" si="69">C362+D362-E362</f>
+        <v>55980.558225000059</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="7">
+        <v>44845</v>
+      </c>
+      <c r="B363" t="s">
+        <v>43</v>
+      </c>
+      <c r="C363" s="2">
+        <f t="shared" si="68"/>
+        <v>55980.558225000059</v>
+      </c>
+      <c r="E363" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F363" s="3">
+        <f t="shared" si="69"/>
+        <v>55980.048225000057</v>
+      </c>
+      <c r="G363" s="3">
+        <v>55980.05</v>
+      </c>
+      <c r="H363" s="21">
+        <f>G363-F363</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="7">
+        <v>44846</v>
+      </c>
+      <c r="B364" t="s">
+        <v>124</v>
+      </c>
+      <c r="C364" s="2">
+        <f t="shared" ref="C364:C365" si="70">F363</f>
+        <v>55980.048225000057</v>
+      </c>
+      <c r="E364" s="2">
+        <v>10135.86</v>
+      </c>
+      <c r="F364" s="3">
+        <f t="shared" ref="F364:F365" si="71">C364+D364-E364</f>
+        <v>45844.188225000056</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="7">
+        <v>44846</v>
+      </c>
+      <c r="B365" t="s">
+        <v>43</v>
+      </c>
+      <c r="C365" s="2">
+        <f t="shared" si="70"/>
+        <v>45844.188225000056</v>
+      </c>
+      <c r="E365" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F365" s="3">
+        <f t="shared" si="71"/>
+        <v>45843.678225000054</v>
+      </c>
+      <c r="G365" s="3">
+        <v>45843.68</v>
+      </c>
+      <c r="H365" s="21">
+        <f>G365-F365</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="7">
+        <v>44848</v>
+      </c>
+      <c r="B366" t="s">
+        <v>39</v>
+      </c>
+      <c r="C366" s="2">
+        <f t="shared" ref="C366:C369" si="72">F365</f>
+        <v>45843.678225000054</v>
+      </c>
+      <c r="E366" s="2">
+        <v>274.87</v>
+      </c>
+      <c r="F366" s="3">
+        <f t="shared" ref="F366:F369" si="73">C366+D366-E366</f>
+        <v>45568.808225000052</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="7">
+        <v>44848</v>
+      </c>
+      <c r="B367" t="s">
+        <v>124</v>
+      </c>
+      <c r="C367" s="2">
+        <f t="shared" si="72"/>
+        <v>45568.808225000052</v>
+      </c>
+      <c r="E367" s="2">
+        <v>555</v>
+      </c>
+      <c r="F367" s="3">
+        <f t="shared" si="73"/>
+        <v>45013.808225000052</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="7">
+        <v>44848</v>
+      </c>
+      <c r="B368" t="s">
+        <v>43</v>
+      </c>
+      <c r="C368" s="2">
+        <f t="shared" si="72"/>
+        <v>45013.808225000052</v>
+      </c>
+      <c r="E368" s="2">
+        <f>2*0.51</f>
+        <v>1.02</v>
+      </c>
+      <c r="F368" s="3">
+        <f t="shared" si="73"/>
+        <v>45012.788225000055</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="7">
+        <v>44848</v>
+      </c>
+      <c r="B369" t="s">
+        <v>125</v>
+      </c>
+      <c r="C369" s="2">
+        <f t="shared" si="72"/>
+        <v>45012.788225000055</v>
+      </c>
+      <c r="E369" s="2">
+        <v>1057</v>
+      </c>
+      <c r="F369" s="3">
+        <f t="shared" si="73"/>
+        <v>43955.788225000055</v>
+      </c>
+      <c r="G369" s="3">
+        <v>43955.79</v>
+      </c>
+      <c r="H369" s="21">
+        <f>G369-F369</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B370" t="s">
+        <v>51</v>
+      </c>
+      <c r="C370" s="2">
+        <f t="shared" ref="C370:C374" si="74">F369</f>
+        <v>43955.788225000055</v>
+      </c>
+      <c r="E370" s="2">
+        <v>1368.45</v>
+      </c>
+      <c r="F370" s="3">
+        <f t="shared" ref="F370:F374" si="75">C370+D370-E370</f>
+        <v>42587.338225000058</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B371" t="s">
+        <v>17</v>
+      </c>
+      <c r="C371" s="2">
+        <f t="shared" si="74"/>
+        <v>42587.338225000058</v>
+      </c>
+      <c r="E371" s="2">
+        <v>368.64</v>
+      </c>
+      <c r="F371" s="3">
+        <f t="shared" si="75"/>
+        <v>42218.698225000058</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B372" t="s">
+        <v>54</v>
+      </c>
+      <c r="C372" s="2">
+        <f t="shared" si="74"/>
+        <v>42218.698225000058</v>
+      </c>
+      <c r="E372" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F372" s="3">
+        <f t="shared" si="75"/>
+        <v>37218.698225000058</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B373" t="s">
+        <v>43</v>
+      </c>
+      <c r="C373" s="2">
+        <f t="shared" si="74"/>
+        <v>37218.698225000058</v>
+      </c>
+      <c r="E373" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F373" s="3">
+        <f t="shared" si="75"/>
+        <v>37218.188225000056</v>
+      </c>
+      <c r="G373" s="3">
+        <v>37218.19</v>
+      </c>
+      <c r="H373" s="21">
+        <f>G373-F373</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="7">
+        <v>44852</v>
+      </c>
+      <c r="B374" t="s">
+        <v>81</v>
+      </c>
+      <c r="C374" s="2">
+        <f t="shared" si="74"/>
+        <v>37218.188225000056</v>
+      </c>
+      <c r="D374" s="2">
+        <v>4221.74</v>
+      </c>
+      <c r="F374" s="3">
+        <f t="shared" si="75"/>
+        <v>41439.928225000054</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="7">
+        <v>44852</v>
+      </c>
+      <c r="B375" t="s">
+        <v>49</v>
+      </c>
+      <c r="C375" s="2">
+        <f t="shared" ref="C375:C376" si="76">F374</f>
+        <v>41439.928225000054</v>
+      </c>
+      <c r="E375" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F375" s="3">
+        <f t="shared" ref="F375:F376" si="77">C375+D375-E375</f>
+        <v>40439.928225000054</v>
+      </c>
+      <c r="G375" s="3">
+        <v>40439.93</v>
+      </c>
+      <c r="H375" s="21">
+        <f>G375-F375</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="7">
+        <v>44853</v>
+      </c>
+      <c r="B376" t="s">
+        <v>53</v>
+      </c>
+      <c r="C376" s="2">
+        <f t="shared" si="76"/>
+        <v>40439.928225000054</v>
+      </c>
+      <c r="E376" s="2">
+        <v>625.17999999999995</v>
+      </c>
+      <c r="F376" s="3">
+        <f t="shared" si="77"/>
+        <v>39814.748225000054</v>
+      </c>
+      <c r="G376" s="3">
+        <v>39814.75</v>
+      </c>
+      <c r="H376" s="21">
+        <f>G376-F376</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="7">
+        <v>44854</v>
+      </c>
+      <c r="B377" t="s">
+        <v>50</v>
+      </c>
+      <c r="C377" s="2">
+        <f t="shared" ref="C377:C378" si="78">F376</f>
+        <v>39814.748225000054</v>
+      </c>
+      <c r="E377" s="2">
+        <v>1382.78</v>
+      </c>
+      <c r="F377" s="3">
+        <f t="shared" ref="F377:F378" si="79">C377+D377-E377</f>
+        <v>38431.968225000055</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="7">
+        <v>44854</v>
+      </c>
+      <c r="B378" t="s">
+        <v>43</v>
+      </c>
+      <c r="C378" s="2">
+        <f t="shared" si="78"/>
+        <v>38431.968225000055</v>
+      </c>
+      <c r="E378" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F378" s="3">
+        <f t="shared" si="79"/>
+        <v>38431.458225000053</v>
+      </c>
+      <c r="G378" s="3">
+        <v>38431.46</v>
+      </c>
+      <c r="H378" s="21">
+        <f>G378-F378</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="7">
+        <v>44855</v>
+      </c>
+      <c r="B379" t="s">
+        <v>49</v>
+      </c>
+      <c r="C379" s="2">
+        <f t="shared" ref="C379:C382" si="80">F378</f>
+        <v>38431.458225000053</v>
+      </c>
+      <c r="E379" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F379" s="3">
+        <f t="shared" ref="F379:F382" si="81">C379+D379-E379</f>
+        <v>37431.458225000053</v>
+      </c>
+      <c r="G379" s="3">
+        <v>37431.46</v>
+      </c>
+      <c r="H379" s="21">
+        <f>G379-F379</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="7">
+        <v>44858</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" s="2">
+        <f t="shared" si="80"/>
+        <v>37431.458225000053</v>
+      </c>
+      <c r="E380" s="2">
+        <v>450</v>
+      </c>
+      <c r="F380" s="3">
+        <f t="shared" si="81"/>
+        <v>36981.458225000053</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="7">
+        <v>44858</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="2">
+        <f t="shared" si="80"/>
+        <v>36981.458225000053</v>
+      </c>
+      <c r="E381" s="2">
+        <v>150</v>
+      </c>
+      <c r="F381" s="3">
+        <f t="shared" si="81"/>
+        <v>36831.458225000053</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="7">
+        <v>44858</v>
+      </c>
+      <c r="B382" t="s">
+        <v>43</v>
+      </c>
+      <c r="C382" s="2">
+        <f t="shared" si="80"/>
+        <v>36831.458225000053</v>
+      </c>
+      <c r="E382" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F382" s="3">
+        <f t="shared" si="81"/>
+        <v>36829.928225000054</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="7">
+        <v>44858</v>
+      </c>
+      <c r="B383" t="s">
+        <v>126</v>
+      </c>
+      <c r="C383" s="2">
+        <f t="shared" ref="C383" si="82">F382</f>
+        <v>36829.928225000054</v>
+      </c>
+      <c r="E383" s="2">
+        <v>4720</v>
+      </c>
+      <c r="F383" s="3">
+        <f t="shared" ref="F383" si="83">C383+D383-E383</f>
+        <v>32109.928225000054</v>
+      </c>
+      <c r="G383" s="3">
+        <v>32109.93</v>
+      </c>
+      <c r="H383" s="21">
+        <f>G383-F383</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="7">
         <v>44859</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="2">
+        <f t="shared" ref="C384:C388" si="84">F383</f>
+        <v>32109.928225000054</v>
+      </c>
+      <c r="E384" s="2">
+        <v>2808</v>
+      </c>
+      <c r="F384" s="3">
+        <f t="shared" ref="F384:F388" si="85">C384+D384-E384</f>
+        <v>29301.928225000054</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="7">
+        <v>44859</v>
+      </c>
+      <c r="B385" t="s">
         <v>18</v>
       </c>
-      <c r="C269" s="2">
-        <f t="shared" si="56"/>
-        <v>88192.40822500005</v>
-      </c>
-      <c r="E269" s="2">
+      <c r="C385" s="2">
+        <f t="shared" si="84"/>
+        <v>29301.928225000054</v>
+      </c>
+      <c r="E385" s="2">
+        <v>115</v>
+      </c>
+      <c r="F385" s="3">
+        <f t="shared" si="85"/>
+        <v>29186.928225000054</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="7">
+        <v>44859</v>
+      </c>
+      <c r="B386" t="s">
+        <v>76</v>
+      </c>
+      <c r="C386" s="2">
+        <f t="shared" si="84"/>
+        <v>29186.928225000054</v>
+      </c>
+      <c r="E386" s="2">
+        <v>2048</v>
+      </c>
+      <c r="F386" s="3">
+        <f t="shared" si="85"/>
+        <v>27138.928225000054</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="7">
+        <v>44859</v>
+      </c>
+      <c r="B387" t="s">
+        <v>43</v>
+      </c>
+      <c r="C387" s="2">
+        <f t="shared" si="84"/>
+        <v>27138.928225000054</v>
+      </c>
+      <c r="E387" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F387" s="3">
+        <f t="shared" si="85"/>
+        <v>27137.398225000055</v>
+      </c>
+      <c r="G387" s="3">
+        <v>27137.4</v>
+      </c>
+      <c r="H387" s="21">
+        <f>G387-F387</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="7">
+        <v>44861</v>
+      </c>
+      <c r="B388" t="s">
+        <v>51</v>
+      </c>
+      <c r="C388" s="2">
+        <f t="shared" si="84"/>
+        <v>27137.398225000055</v>
+      </c>
+      <c r="E388" s="2">
+        <v>430.97</v>
+      </c>
+      <c r="F388" s="3">
+        <f t="shared" si="85"/>
+        <v>26706.428225000054</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="7">
+        <v>44861</v>
+      </c>
+      <c r="B389" t="s">
+        <v>43</v>
+      </c>
+      <c r="C389" s="2">
+        <f t="shared" ref="C389:C390" si="86">F388</f>
+        <v>26706.428225000054</v>
+      </c>
+      <c r="E389" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F389" s="3">
+        <f t="shared" ref="F389:F390" si="87">C389+D389-E389</f>
+        <v>26705.918225000056</v>
+      </c>
+      <c r="G389" s="3">
+        <v>26705.919999999998</v>
+      </c>
+      <c r="H389" s="21">
+        <f>G389-F389</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="7">
+        <v>44862</v>
+      </c>
+      <c r="B390" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="20">
+        <f t="shared" si="86"/>
+        <v>26705.918225000056</v>
+      </c>
+      <c r="D390" s="20">
+        <v>14513.79</v>
+      </c>
+      <c r="F390" s="3">
+        <f t="shared" si="87"/>
+        <v>41219.708225000053</v>
+      </c>
+      <c r="G390" s="3">
+        <v>41219.71</v>
+      </c>
+      <c r="H390" s="21">
+        <f>G390-F390</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="7">
+        <v>44863</v>
+      </c>
+      <c r="B391" t="s">
+        <v>49</v>
+      </c>
+      <c r="C391" s="2">
+        <f t="shared" ref="C391:C392" si="88">F390</f>
+        <v>41219.708225000053</v>
+      </c>
+      <c r="E391" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F391" s="3">
+        <f t="shared" ref="F391:F392" si="89">C391+D391-E391</f>
+        <v>40219.708225000053</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="7">
+        <v>44863</v>
+      </c>
+      <c r="B392" t="s">
+        <v>54</v>
+      </c>
+      <c r="C392" s="2">
+        <f t="shared" si="88"/>
+        <v>40219.708225000053</v>
+      </c>
+      <c r="E392" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F392" s="3">
+        <f t="shared" si="89"/>
+        <v>35219.708225000053</v>
+      </c>
+      <c r="G392" s="3">
+        <v>35219.71</v>
+      </c>
+      <c r="H392" s="21">
+        <f>G392-F392</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B393" t="s">
+        <v>39</v>
+      </c>
+      <c r="C393" s="2">
+        <f t="shared" ref="C393:C397" si="90">F392</f>
+        <v>35219.708225000053</v>
+      </c>
+      <c r="E393" s="2">
+        <v>333.14</v>
+      </c>
+      <c r="F393" s="3">
+        <f t="shared" ref="F393:F397" si="91">C393+D393-E393</f>
+        <v>34886.568225000054</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B394" t="s">
+        <v>50</v>
+      </c>
+      <c r="C394" s="2">
+        <f t="shared" si="90"/>
+        <v>34886.568225000054</v>
+      </c>
+      <c r="E394" s="2">
+        <v>2005.39</v>
+      </c>
+      <c r="F394" s="3">
+        <f t="shared" si="91"/>
+        <v>32881.178225000054</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B395" t="s">
+        <v>43</v>
+      </c>
+      <c r="C395" s="2">
+        <f t="shared" si="90"/>
+        <v>32881.178225000054</v>
+      </c>
+      <c r="E395" s="2">
+        <f>0.51*3</f>
+        <v>1.53</v>
+      </c>
+      <c r="F395" s="3">
+        <f t="shared" si="91"/>
+        <v>32879.648225000055</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B396" t="s">
+        <v>61</v>
+      </c>
+      <c r="C396" s="2">
+        <f t="shared" si="90"/>
+        <v>32879.648225000055</v>
+      </c>
+      <c r="D396" s="2">
+        <v>3526.8</v>
+      </c>
+      <c r="F396" s="3">
+        <f t="shared" si="91"/>
+        <v>36406.448225000058</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B397" t="s">
+        <v>123</v>
+      </c>
+      <c r="C397" s="2">
+        <f t="shared" si="90"/>
+        <v>36406.448225000058</v>
+      </c>
+      <c r="E397" s="2">
+        <v>692.68</v>
+      </c>
+      <c r="F397" s="3">
+        <f t="shared" si="91"/>
+        <v>35713.768225000058</v>
+      </c>
+      <c r="G397" s="3">
+        <v>35713.769999999997</v>
+      </c>
+      <c r="H397" s="21">
+        <f>G397-F397</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="7">
+        <v>44866</v>
+      </c>
+      <c r="B398" t="s">
+        <v>43</v>
+      </c>
+      <c r="C398" s="2">
+        <f t="shared" ref="C398:C399" si="92">F397</f>
+        <v>35713.768225000058</v>
+      </c>
+      <c r="E398" s="2">
+        <v>76</v>
+      </c>
+      <c r="F398" s="3">
+        <f t="shared" ref="F398:F399" si="93">C398+D398-E398</f>
+        <v>35637.768225000058</v>
+      </c>
+      <c r="G398" s="3">
+        <v>35637.769999999997</v>
+      </c>
+      <c r="H398" s="21">
+        <f>G398-F398</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="7">
+        <v>44867</v>
+      </c>
+      <c r="B399" t="s">
+        <v>49</v>
+      </c>
+      <c r="C399" s="2">
+        <f t="shared" si="92"/>
+        <v>35637.768225000058</v>
+      </c>
+      <c r="E399" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F399" s="3">
+        <f t="shared" si="93"/>
+        <v>33637.768225000058</v>
+      </c>
+      <c r="G399" s="3">
+        <v>33637.769999999997</v>
+      </c>
+      <c r="H399" s="21">
+        <f>G399-F399</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="7">
+        <v>44868</v>
+      </c>
+      <c r="B400" t="s">
+        <v>51</v>
+      </c>
+      <c r="C400" s="2">
+        <f t="shared" ref="C400:C401" si="94">F399</f>
+        <v>33637.768225000058</v>
+      </c>
+      <c r="E400" s="2">
+        <v>828.25</v>
+      </c>
+      <c r="F400" s="3">
+        <f t="shared" ref="F400:F401" si="95">C400+D400-E400</f>
+        <v>32809.518225000058</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="7">
+        <v>44868</v>
+      </c>
+      <c r="B401" t="s">
+        <v>43</v>
+      </c>
+      <c r="C401" s="2">
+        <f t="shared" si="94"/>
+        <v>32809.518225000058</v>
+      </c>
+      <c r="E401" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F401" s="3">
+        <f t="shared" si="95"/>
+        <v>32809.008225000056</v>
+      </c>
+      <c r="G401" s="3">
+        <v>32809.01</v>
+      </c>
+      <c r="H401" s="21">
+        <f>G401-F401</f>
+        <v>1.7749999460647814E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B402" t="s">
+        <v>45</v>
+      </c>
+      <c r="C402" s="2">
+        <f t="shared" ref="C402:C404" si="96">F401</f>
+        <v>32809.008225000056</v>
+      </c>
+      <c r="E402" s="2">
+        <v>547.4</v>
+      </c>
+      <c r="F402" s="3">
+        <f t="shared" ref="F402:F404" si="97">C402+D402-E402</f>
+        <v>32261.608225000055</v>
+      </c>
+      <c r="I402" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B403" t="s">
+        <v>37</v>
+      </c>
+      <c r="C403" s="2">
+        <f t="shared" si="96"/>
+        <v>32261.608225000055</v>
+      </c>
+      <c r="E403" s="2">
+        <f>265.67</f>
+        <v>265.67</v>
+      </c>
+      <c r="F403" s="3">
+        <f t="shared" si="97"/>
+        <v>31995.938225000056</v>
+      </c>
+      <c r="I403" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B404" t="s">
+        <v>43</v>
+      </c>
+      <c r="C404" s="2">
+        <f t="shared" si="96"/>
+        <v>31995.938225000056</v>
+      </c>
+      <c r="E404" s="2">
+        <f>2*0.51</f>
+        <v>1.02</v>
+      </c>
+      <c r="F404" s="3">
+        <f t="shared" si="97"/>
+        <v>31994.918225000056</v>
+      </c>
+      <c r="G404" s="3">
+        <v>31994.92</v>
+      </c>
+      <c r="H404" s="21">
+        <f>G404-F404</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="7">
+        <v>44874</v>
+      </c>
+      <c r="B405" t="s">
+        <v>49</v>
+      </c>
+      <c r="C405" s="2">
+        <f t="shared" ref="C405:C407" si="98">F404</f>
+        <v>31994.918225000056</v>
+      </c>
+      <c r="E405" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F405" s="3">
+        <f t="shared" ref="F405:F407" si="99">C405+D405-E405</f>
+        <v>30994.918225000056</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="7">
+        <v>44874</v>
+      </c>
+      <c r="B406" t="s">
+        <v>125</v>
+      </c>
+      <c r="C406" s="2">
+        <f t="shared" si="98"/>
+        <v>30994.918225000056</v>
+      </c>
+      <c r="E406" s="2">
+        <v>578.91</v>
+      </c>
+      <c r="F406" s="3">
+        <f t="shared" si="99"/>
+        <v>30416.008225000056</v>
+      </c>
+      <c r="G406" s="3">
+        <v>30416.01</v>
+      </c>
+      <c r="H406" s="21">
+        <f>G406-F406</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="7">
+        <v>44876</v>
+      </c>
+      <c r="B407" t="s">
+        <v>54</v>
+      </c>
+      <c r="C407" s="2">
+        <f t="shared" si="98"/>
+        <v>30416.008225000056</v>
+      </c>
+      <c r="E407" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F407" s="3">
+        <f t="shared" si="99"/>
+        <v>25416.008225000056</v>
+      </c>
+      <c r="G407" s="3">
+        <v>25416.01</v>
+      </c>
+      <c r="H407" s="21">
+        <f>G407-F407</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="7">
+        <v>44878</v>
+      </c>
+      <c r="B408" t="s">
+        <v>49</v>
+      </c>
+      <c r="C408" s="2">
+        <f t="shared" ref="C408:C412" si="100">F407</f>
+        <v>25416.008225000056</v>
+      </c>
+      <c r="E408" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F408" s="3">
+        <f t="shared" ref="F408:F412" si="101">C408+D408-E408</f>
+        <v>24416.008225000056</v>
+      </c>
+      <c r="G408" s="3">
+        <v>24416.01</v>
+      </c>
+      <c r="H408" s="21">
+        <f>G408-F408</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="7">
+        <v>44879</v>
+      </c>
+      <c r="B409" t="s">
         <v>53</v>
       </c>
-      <c r="F269" s="3">
-        <f t="shared" si="57"/>
-        <v>88139.40822500005</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="7">
-        <v>44859</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="C409" s="2">
+        <f t="shared" si="100"/>
+        <v>24416.008225000056</v>
+      </c>
+      <c r="E409" s="2">
+        <v>600.64</v>
+      </c>
+      <c r="F409" s="3">
+        <f t="shared" si="101"/>
+        <v>23815.368225000057</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="7">
+        <v>44879</v>
+      </c>
+      <c r="B410" t="s">
+        <v>50</v>
+      </c>
+      <c r="C410" s="2">
+        <f t="shared" si="100"/>
+        <v>23815.368225000057</v>
+      </c>
+      <c r="E410" s="2">
+        <v>2003.96</v>
+      </c>
+      <c r="F410" s="3">
+        <f t="shared" si="101"/>
+        <v>21811.408225000057</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="7">
+        <v>44879</v>
+      </c>
+      <c r="B411" t="s">
         <v>37</v>
       </c>
-      <c r="C270" s="2">
-        <f t="shared" si="56"/>
-        <v>88139.40822500005</v>
-      </c>
-      <c r="E270" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F270" s="3">
-        <f t="shared" si="57"/>
-        <v>86139.40822500005</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="7">
+      <c r="C411" s="2">
+        <f t="shared" si="100"/>
+        <v>21811.408225000057</v>
+      </c>
+      <c r="E411" s="2">
+        <v>265.67</v>
+      </c>
+      <c r="F411" s="3">
+        <f t="shared" si="101"/>
+        <v>21545.738225000059</v>
+      </c>
+      <c r="I411" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="7">
+        <v>44879</v>
+      </c>
+      <c r="B412" t="s">
+        <v>43</v>
+      </c>
+      <c r="C412" s="2">
+        <f t="shared" si="100"/>
+        <v>21545.738225000059</v>
+      </c>
+      <c r="E412" s="2">
+        <f>0.51*2</f>
+        <v>1.02</v>
+      </c>
+      <c r="F412" s="3">
+        <f t="shared" si="101"/>
+        <v>21544.718225000059</v>
+      </c>
+      <c r="G412" s="3">
+        <v>21544.720000000001</v>
+      </c>
+      <c r="H412" s="21">
+        <f>G412-F412</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="7">
+        <v>44880</v>
+      </c>
+      <c r="B413" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413" s="20">
+        <f t="shared" ref="C413:C414" si="102">F412</f>
+        <v>21544.718225000059</v>
+      </c>
+      <c r="D413" s="20">
+        <v>9184.619999999999</v>
+      </c>
+      <c r="F413" s="3">
+        <f t="shared" ref="F413:F414" si="103">C413+D413-E413</f>
+        <v>30729.338225000058</v>
+      </c>
+      <c r="G413" s="3">
+        <v>30729.34</v>
+      </c>
+      <c r="H413" s="21">
+        <f>G413-F413</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="7">
         <v>44881</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B414" t="s">
         <v>17</v>
       </c>
-      <c r="C271" s="2">
-        <f t="shared" si="56"/>
-        <v>86139.40822500005</v>
-      </c>
-      <c r="E271" s="2">
-        <v>350</v>
-      </c>
-      <c r="F271" s="3">
-        <f t="shared" si="57"/>
-        <v>85789.40822500005</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="7">
-        <v>44889</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="C414" s="2">
+        <f t="shared" si="102"/>
+        <v>30729.338225000058</v>
+      </c>
+      <c r="E414" s="2">
+        <v>358.7</v>
+      </c>
+      <c r="F414" s="3">
+        <f t="shared" si="103"/>
+        <v>30370.638225000057</v>
+      </c>
+      <c r="G414" s="3">
+        <v>30370.639999999999</v>
+      </c>
+      <c r="H414" s="21">
+        <f>G414-F414</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="7">
+        <v>44882</v>
+      </c>
+      <c r="B415" t="s">
+        <v>50</v>
+      </c>
+      <c r="C415" s="2">
+        <f t="shared" ref="C415:C416" si="104">F414</f>
+        <v>30370.638225000057</v>
+      </c>
+      <c r="E415" s="2">
+        <v>860.73</v>
+      </c>
+      <c r="F415" s="3">
+        <f t="shared" ref="F415:F416" si="105">C415+D415-E415</f>
+        <v>29509.908225000057</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="7">
+        <v>44882</v>
+      </c>
+      <c r="B416" t="s">
+        <v>43</v>
+      </c>
+      <c r="C416" s="2">
+        <f t="shared" si="104"/>
+        <v>29509.908225000057</v>
+      </c>
+      <c r="E416" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F416" s="3">
+        <f t="shared" si="105"/>
+        <v>29509.398225000059</v>
+      </c>
+      <c r="G416" s="3">
+        <v>29509.4</v>
+      </c>
+      <c r="H416" s="21">
+        <f>G416-F416</f>
+        <v>1.7749999424268026E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="7">
+        <v>44888</v>
+      </c>
+      <c r="B417" t="s">
+        <v>37</v>
+      </c>
+      <c r="C417" s="2">
+        <f t="shared" ref="C417:C418" si="106">F416</f>
+        <v>29509.398225000059</v>
+      </c>
+      <c r="E417" s="2">
+        <v>265.67</v>
+      </c>
+      <c r="F417" s="3">
+        <f t="shared" ref="F417:F418" si="107">C417+D417-E417</f>
+        <v>29243.728225000061</v>
+      </c>
+      <c r="I417" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="7">
+        <v>44888</v>
+      </c>
+      <c r="B418" t="s">
+        <v>43</v>
+      </c>
+      <c r="C418" s="2">
+        <f t="shared" si="106"/>
+        <v>29243.728225000061</v>
+      </c>
+      <c r="E418" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F418" s="3">
+        <f t="shared" si="107"/>
+        <v>29243.218225000062</v>
+      </c>
+      <c r="G418" s="3">
+        <v>29243.22</v>
+      </c>
+      <c r="H418" s="21">
+        <f>G418-F418</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="7">
+        <v>44890</v>
+      </c>
+      <c r="B419" t="s">
+        <v>39</v>
+      </c>
+      <c r="C419" s="2">
+        <f t="shared" ref="C419:C423" si="108">F418</f>
+        <v>29243.218225000062</v>
+      </c>
+      <c r="E419" s="2">
+        <v>1086.95</v>
+      </c>
+      <c r="F419" s="3">
+        <f t="shared" ref="F419:F423" si="109">C419+D419-E419</f>
+        <v>28156.268225000062</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="7">
+        <v>44890</v>
+      </c>
+      <c r="B420" t="s">
+        <v>51</v>
+      </c>
+      <c r="C420" s="2">
+        <f t="shared" si="108"/>
+        <v>28156.268225000062</v>
+      </c>
+      <c r="E420" s="2">
+        <v>1510.1100000000001</v>
+      </c>
+      <c r="F420" s="3">
+        <f t="shared" si="109"/>
+        <v>26646.158225000061</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="7">
+        <v>44890</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" s="2">
+        <f t="shared" si="108"/>
+        <v>26646.158225000061</v>
+      </c>
+      <c r="E421" s="2">
+        <v>1111</v>
+      </c>
+      <c r="F421" s="3">
+        <f t="shared" si="109"/>
+        <v>25535.158225000061</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="7">
+        <v>44890</v>
+      </c>
+      <c r="B422" t="s">
+        <v>18</v>
+      </c>
+      <c r="C422" s="2">
+        <f t="shared" si="108"/>
+        <v>25535.158225000061</v>
+      </c>
+      <c r="E422" s="2">
+        <v>63</v>
+      </c>
+      <c r="F422" s="3">
+        <f t="shared" si="109"/>
+        <v>25472.158225000061</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="7">
+        <v>44890</v>
+      </c>
+      <c r="B423" t="s">
+        <v>43</v>
+      </c>
+      <c r="C423" s="2">
+        <f t="shared" si="108"/>
+        <v>25472.158225000061</v>
+      </c>
+      <c r="E423" s="2">
+        <f>4*0.51</f>
+        <v>2.04</v>
+      </c>
+      <c r="F423" s="3">
+        <f t="shared" si="109"/>
+        <v>25470.11822500006</v>
+      </c>
+      <c r="G423" s="3">
+        <v>25470.12</v>
+      </c>
+      <c r="H423" s="21">
+        <f>G423-F423</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="7">
+        <v>44893</v>
+      </c>
+      <c r="B424" t="s">
         <v>5</v>
       </c>
-      <c r="C272" s="2">
-        <f t="shared" si="56"/>
-        <v>85789.40822500005</v>
-      </c>
-      <c r="E272" s="2">
+      <c r="C424" s="2">
+        <f t="shared" ref="C424:C427" si="110">F423</f>
+        <v>25470.11822500006</v>
+      </c>
+      <c r="E424" s="2">
         <v>450</v>
       </c>
-      <c r="F272" s="3">
-        <f t="shared" si="57"/>
-        <v>85339.40822500005</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="7">
-        <v>44890</v>
-      </c>
-      <c r="B273" t="s">
+      <c r="F424" s="3">
+        <f t="shared" ref="F424:F427" si="111">C424+D424-E424</f>
+        <v>25020.11822500006</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="7">
+        <v>44893</v>
+      </c>
+      <c r="B425" t="s">
+        <v>50</v>
+      </c>
+      <c r="C425" s="2">
+        <f t="shared" si="110"/>
+        <v>25020.11822500006</v>
+      </c>
+      <c r="E425" s="2">
+        <v>158.51</v>
+      </c>
+      <c r="F425" s="3">
+        <f t="shared" si="111"/>
+        <v>24861.608225000062</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="7">
+        <v>44893</v>
+      </c>
+      <c r="B426" t="s">
+        <v>43</v>
+      </c>
+      <c r="C426" s="2">
+        <f t="shared" si="110"/>
+        <v>24861.608225000062</v>
+      </c>
+      <c r="E426" s="2">
+        <f>2*0.51</f>
+        <v>1.02</v>
+      </c>
+      <c r="F426" s="3">
+        <f t="shared" si="111"/>
+        <v>24860.588225000061</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="7">
+        <v>44893</v>
+      </c>
+      <c r="B427" t="s">
+        <v>44</v>
+      </c>
+      <c r="C427" s="2">
+        <f t="shared" si="110"/>
+        <v>24860.588225000061</v>
+      </c>
+      <c r="D427" s="2">
+        <v>3412.51</v>
+      </c>
+      <c r="F427" s="3">
+        <f t="shared" si="111"/>
+        <v>28273.09822500006</v>
+      </c>
+      <c r="G427" s="3">
+        <v>28273.1</v>
+      </c>
+      <c r="H427" s="21">
+        <f>G427-F427</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="7">
+        <v>44896</v>
+      </c>
+      <c r="B428" t="s">
+        <v>49</v>
+      </c>
+      <c r="C428" s="2">
+        <f t="shared" ref="C428" si="112">F427</f>
+        <v>28273.09822500006</v>
+      </c>
+      <c r="E428" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F428" s="3">
+        <f t="shared" ref="F428" si="113">C428+D428-E428</f>
+        <v>27273.09822500006</v>
+      </c>
+      <c r="G428" s="3">
+        <v>27273.1</v>
+      </c>
+      <c r="H428" s="21">
+        <f>G428-F428</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="7">
+        <v>44898</v>
+      </c>
+      <c r="B429" t="s">
+        <v>43</v>
+      </c>
+      <c r="C429" s="2">
+        <f t="shared" ref="C429:C434" si="114">F428</f>
+        <v>27273.09822500006</v>
+      </c>
+      <c r="E429" s="2">
+        <v>76</v>
+      </c>
+      <c r="F429" s="3">
+        <f t="shared" ref="F429:F434" si="115">C429+D429-E429</f>
+        <v>27197.09822500006</v>
+      </c>
+      <c r="G429" s="3">
+        <v>27197.1</v>
+      </c>
+      <c r="H429" s="21">
+        <f>G429-F429</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B430" t="s">
+        <v>52</v>
+      </c>
+      <c r="C430" s="2">
+        <f t="shared" si="114"/>
+        <v>27197.09822500006</v>
+      </c>
+      <c r="E430" s="2">
+        <v>208.54</v>
+      </c>
+      <c r="F430" s="3">
+        <f t="shared" si="115"/>
+        <v>26988.558225000059</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B431" t="s">
+        <v>37</v>
+      </c>
+      <c r="C431" s="2">
+        <f t="shared" si="114"/>
+        <v>26988.558225000059</v>
+      </c>
+      <c r="E431" s="2">
+        <v>270.62</v>
+      </c>
+      <c r="F431" s="3">
+        <f t="shared" si="115"/>
+        <v>26717.93822500006</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B432" t="s">
+        <v>50</v>
+      </c>
+      <c r="C432" s="2">
+        <f t="shared" si="114"/>
+        <v>26717.93822500006</v>
+      </c>
+      <c r="E432" s="2">
+        <v>865.19</v>
+      </c>
+      <c r="F432" s="3">
+        <f t="shared" si="115"/>
+        <v>25852.748225000061</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B433" t="s">
+        <v>43</v>
+      </c>
+      <c r="C433" s="2">
+        <f t="shared" si="114"/>
+        <v>25852.748225000061</v>
+      </c>
+      <c r="E433" s="2">
+        <f>3*0.51</f>
+        <v>1.53</v>
+      </c>
+      <c r="F433" s="3">
+        <f t="shared" si="115"/>
+        <v>25851.218225000062</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B434" t="s">
+        <v>88</v>
+      </c>
+      <c r="C434" s="2">
+        <f t="shared" si="114"/>
+        <v>25851.218225000062</v>
+      </c>
+      <c r="D434" s="2">
+        <v>196.98</v>
+      </c>
+      <c r="F434" s="3">
+        <f t="shared" si="115"/>
+        <v>26048.198225000062</v>
+      </c>
+      <c r="G434" s="3">
+        <v>26048.2</v>
+      </c>
+      <c r="H434" s="21">
+        <f>G434-F434</f>
+        <v>1.7749999387888238E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="7">
+        <v>44904</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="20">
+        <f t="shared" ref="C435:C437" si="116">F434</f>
+        <v>26048.198225000062</v>
+      </c>
+      <c r="D435" s="20">
+        <v>3944.9000000000005</v>
+      </c>
+      <c r="F435" s="3">
+        <f t="shared" ref="F435:F437" si="117">C435+D435-E435</f>
+        <v>29993.098225000063</v>
+      </c>
+      <c r="G435" s="3">
+        <v>29993.1</v>
+      </c>
+      <c r="H435" s="21">
+        <f>G435-F435</f>
+        <v>1.774999935150845E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="7">
+        <v>44907</v>
+      </c>
+      <c r="B436" t="s">
+        <v>51</v>
+      </c>
+      <c r="C436" s="2">
+        <f t="shared" si="116"/>
+        <v>29993.098225000063</v>
+      </c>
+      <c r="E436" s="2">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="F436" s="3">
+        <f t="shared" si="117"/>
+        <v>29707.498225000065</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="7">
+        <v>44907</v>
+      </c>
+      <c r="B437" t="s">
+        <v>43</v>
+      </c>
+      <c r="C437" s="2">
+        <f t="shared" si="116"/>
+        <v>29707.498225000065</v>
+      </c>
+      <c r="E437" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F437" s="3">
+        <f t="shared" si="117"/>
+        <v>29706.988225000066</v>
+      </c>
+      <c r="G437" s="3">
+        <v>29706.99</v>
+      </c>
+      <c r="H437" s="21">
+        <f>G437-F437</f>
+        <v>1.774999935150845E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="7">
+        <v>44908</v>
+      </c>
+      <c r="B438" t="s">
+        <v>130</v>
+      </c>
+      <c r="C438" s="2">
+        <f t="shared" ref="C438" si="118">F437</f>
+        <v>29706.988225000066</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1524</v>
+      </c>
+      <c r="F438" s="3">
+        <f t="shared" ref="F438" si="119">C438+D438-E438</f>
+        <v>28182.988225000066</v>
+      </c>
+      <c r="G438" s="3">
+        <v>28182.99</v>
+      </c>
+      <c r="H438" s="21">
+        <f>G438-F438</f>
+        <v>1.774999935150845E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="7">
+        <v>44909</v>
+      </c>
+      <c r="B439" t="s">
+        <v>61</v>
+      </c>
+      <c r="C439" s="2">
+        <f t="shared" ref="C439:C440" si="120">F438</f>
+        <v>28182.988225000066</v>
+      </c>
+      <c r="D439" s="2">
+        <v>3492.82</v>
+      </c>
+      <c r="F439" s="3">
+        <f t="shared" ref="F439:F440" si="121">C439+D439-E439</f>
+        <v>31675.808225000066</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="7">
+        <v>44909</v>
+      </c>
+      <c r="B440" t="s">
+        <v>53</v>
+      </c>
+      <c r="C440" s="2">
+        <f t="shared" si="120"/>
+        <v>31675.808225000066</v>
+      </c>
+      <c r="E440" s="2">
+        <v>604.91999999999996</v>
+      </c>
+      <c r="F440" s="3">
+        <f t="shared" si="121"/>
+        <v>31070.888225000068</v>
+      </c>
+      <c r="G440" s="3">
+        <v>31070.89</v>
+      </c>
+      <c r="H440" s="21">
+        <f>G440-F440</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B441" t="s">
+        <v>50</v>
+      </c>
+      <c r="C441" s="2">
+        <f t="shared" ref="C441:C447" si="122">F440</f>
+        <v>31070.888225000068</v>
+      </c>
+      <c r="E441" s="2">
+        <v>413.94</v>
+      </c>
+      <c r="F441" s="3">
+        <f t="shared" ref="F441:F447" si="123">C441+D441-E441</f>
+        <v>30656.948225000069</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B442" t="s">
+        <v>43</v>
+      </c>
+      <c r="C442" s="2">
+        <f t="shared" si="122"/>
+        <v>30656.948225000069</v>
+      </c>
+      <c r="E442" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F442" s="3">
+        <f t="shared" si="123"/>
+        <v>30656.438225000071</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C443" s="2">
+        <f t="shared" si="122"/>
+        <v>30656.438225000071</v>
+      </c>
+      <c r="E443" s="2">
+        <v>379.45</v>
+      </c>
+      <c r="F443" s="3">
+        <f t="shared" si="123"/>
+        <v>30276.98822500007</v>
+      </c>
+      <c r="L443" s="1"/>
+    </row>
+    <row r="444" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B444" t="s">
+        <v>80</v>
+      </c>
+      <c r="C444" s="2">
+        <f t="shared" si="122"/>
+        <v>30276.98822500007</v>
+      </c>
+      <c r="E444" s="2">
+        <v>1490.98</v>
+      </c>
+      <c r="F444" s="3">
+        <f t="shared" si="123"/>
+        <v>28786.008225000071</v>
+      </c>
+      <c r="L444" s="1"/>
+    </row>
+    <row r="445" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B445" t="s">
+        <v>83</v>
+      </c>
+      <c r="C445" s="2">
+        <f t="shared" si="122"/>
+        <v>28786.008225000071</v>
+      </c>
+      <c r="E445" s="2">
+        <f>250*4.971</f>
+        <v>1242.75</v>
+      </c>
+      <c r="F445" s="3">
+        <f t="shared" si="123"/>
+        <v>27543.258225000071</v>
+      </c>
+      <c r="G445" s="3">
+        <v>27543.26</v>
+      </c>
+      <c r="H445" s="21">
+        <f>G445-F445</f>
+        <v>1.7749999278748874E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="7">
+        <v>44911</v>
+      </c>
+      <c r="B446" t="s">
+        <v>81</v>
+      </c>
+      <c r="C446" s="2">
+        <f t="shared" si="122"/>
+        <v>27543.258225000071</v>
+      </c>
+      <c r="D446" s="2">
+        <v>18214.54</v>
+      </c>
+      <c r="F446" s="3">
+        <f t="shared" si="123"/>
+        <v>45757.798225000071</v>
+      </c>
+      <c r="G446" s="3">
+        <v>45757.8</v>
+      </c>
+      <c r="H446" s="21">
+        <f>G446-F446</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="7">
+        <v>44912</v>
+      </c>
+      <c r="B447" t="s">
+        <v>49</v>
+      </c>
+      <c r="C447" s="2">
+        <f t="shared" si="122"/>
+        <v>45757.798225000071</v>
+      </c>
+      <c r="E447" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F447" s="3">
+        <f t="shared" si="123"/>
+        <v>44757.798225000071</v>
+      </c>
+      <c r="G447" s="3">
+        <v>44757.8</v>
+      </c>
+      <c r="H447" s="21">
+        <f>G447-F447</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="7">
+        <v>44915</v>
+      </c>
+      <c r="B448" t="s">
+        <v>86</v>
+      </c>
+      <c r="C448" s="2">
+        <f t="shared" ref="C448:C452" si="124">F447</f>
+        <v>44757.798225000071</v>
+      </c>
+      <c r="D448" s="2">
+        <v>787.19</v>
+      </c>
+      <c r="F448" s="3">
+        <f t="shared" ref="F448:F452" si="125">C448+D448-E448</f>
+        <v>45544.988225000074</v>
+      </c>
+      <c r="G448" s="3">
+        <v>45544.99</v>
+      </c>
+      <c r="H448" s="21">
+        <f>G448-F448</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="7">
+        <v>44916</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" s="2">
+        <f t="shared" si="124"/>
+        <v>45544.988225000074</v>
+      </c>
+      <c r="E449" s="2">
+        <v>450</v>
+      </c>
+      <c r="F449" s="3">
+        <f t="shared" si="125"/>
+        <v>45094.988225000074</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="7">
+        <v>44916</v>
+      </c>
+      <c r="B450" t="s">
         <v>6</v>
       </c>
-      <c r="C273" s="2">
-        <f t="shared" si="56"/>
-        <v>85339.40822500005</v>
-      </c>
-      <c r="E273" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F273" s="3">
-        <f t="shared" si="57"/>
-        <v>83339.40822500005</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="7">
-        <v>44890</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="C450" s="2">
+        <f t="shared" si="124"/>
+        <v>45094.988225000074</v>
+      </c>
+      <c r="E450" s="2">
+        <v>1026</v>
+      </c>
+      <c r="F450" s="3">
+        <f t="shared" si="125"/>
+        <v>44068.988225000074</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="7">
+        <v>44916</v>
+      </c>
+      <c r="B451" t="s">
         <v>18</v>
       </c>
-      <c r="C274" s="2">
-        <f t="shared" si="56"/>
-        <v>83339.40822500005</v>
-      </c>
-      <c r="E274" s="2">
-        <v>53</v>
-      </c>
-      <c r="F274" s="3">
-        <f t="shared" si="57"/>
-        <v>83286.40822500005</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="7">
-        <v>44890</v>
-      </c>
-      <c r="B275" t="s">
-        <v>37</v>
-      </c>
-      <c r="C275" s="2">
-        <f t="shared" si="56"/>
-        <v>83286.40822500005</v>
-      </c>
-      <c r="E275" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F275" s="3">
-        <f t="shared" si="57"/>
-        <v>81286.40822500005</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="7">
-        <v>44911</v>
-      </c>
-      <c r="B276" t="s">
-        <v>17</v>
-      </c>
-      <c r="C276" s="2">
-        <f t="shared" si="56"/>
-        <v>81286.40822500005</v>
-      </c>
-      <c r="E276" s="2">
-        <v>350</v>
-      </c>
-      <c r="F276" s="3">
-        <f t="shared" si="57"/>
-        <v>80936.40822500005</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="7">
-        <v>44915</v>
-      </c>
-      <c r="B277" t="s">
-        <v>5</v>
-      </c>
-      <c r="C277" s="2">
-        <f t="shared" si="56"/>
-        <v>80936.40822500005</v>
-      </c>
-      <c r="E277" s="2">
-        <v>450</v>
-      </c>
-      <c r="F277" s="3">
-        <f t="shared" si="57"/>
-        <v>80486.40822500005</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="7">
+      <c r="C451" s="2">
+        <f t="shared" si="124"/>
+        <v>44068.988225000074</v>
+      </c>
+      <c r="E451" s="2">
+        <v>57</v>
+      </c>
+      <c r="F451" s="3">
+        <f t="shared" si="125"/>
+        <v>44011.988225000074</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="7">
+        <v>44916</v>
+      </c>
+      <c r="B452" t="s">
+        <v>43</v>
+      </c>
+      <c r="C452" s="2">
+        <f t="shared" si="124"/>
+        <v>44011.988225000074</v>
+      </c>
+      <c r="E452" s="2">
+        <f>0.51*3</f>
+        <v>1.53</v>
+      </c>
+      <c r="F452" s="3">
+        <f t="shared" si="125"/>
+        <v>44010.458225000075</v>
+      </c>
+      <c r="G452" s="3">
+        <v>44010.46</v>
+      </c>
+      <c r="H452" s="21">
+        <f>G452-F452</f>
+        <v>1.7749999242369086E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="7">
         <v>44918</v>
       </c>
-      <c r="B278" t="s">
-        <v>6</v>
-      </c>
-      <c r="C278" s="2">
-        <f t="shared" si="56"/>
-        <v>80486.40822500005</v>
-      </c>
-      <c r="E278" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F278" s="3">
-        <f t="shared" si="57"/>
-        <v>78486.40822500005</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="7">
+      <c r="B453" t="s">
+        <v>51</v>
+      </c>
+      <c r="C453" s="2">
+        <f>F452</f>
+        <v>44010.458225000075</v>
+      </c>
+      <c r="E453" s="2">
+        <v>1518.44</v>
+      </c>
+      <c r="F453" s="3">
+        <f>C453+D453-E453</f>
+        <v>42492.018225000073</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="7">
         <v>44918</v>
       </c>
-      <c r="B279" t="s">
-        <v>18</v>
-      </c>
-      <c r="C279" s="2">
-        <f t="shared" si="56"/>
-        <v>78486.40822500005</v>
-      </c>
-      <c r="E279" s="2">
-        <v>53</v>
-      </c>
-      <c r="F279" s="3">
-        <f t="shared" si="57"/>
-        <v>78433.40822500005</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="7">
+      <c r="B454" t="s">
+        <v>43</v>
+      </c>
+      <c r="C454" s="2">
+        <f>F453</f>
+        <v>42492.018225000073</v>
+      </c>
+      <c r="E454" s="2">
+        <f>0.51</f>
+        <v>0.51</v>
+      </c>
+      <c r="F454" s="3">
+        <f>C454+D454-E454</f>
+        <v>42491.508225000071</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="7">
         <v>44918</v>
       </c>
-      <c r="B280" t="s">
-        <v>37</v>
-      </c>
-      <c r="C280" s="2">
-        <f t="shared" si="56"/>
-        <v>78433.40822500005</v>
-      </c>
-      <c r="E280" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F280" s="3">
-        <f t="shared" si="57"/>
-        <v>76433.40822500005</v>
+      <c r="B455" t="s">
+        <v>49</v>
+      </c>
+      <c r="C455" s="2">
+        <f>F454</f>
+        <v>42491.508225000071</v>
+      </c>
+      <c r="E455" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F455" s="3">
+        <f>C455+D455-E455</f>
+        <v>41491.508225000071</v>
+      </c>
+      <c r="G455" s="3">
+        <v>41491.51</v>
+      </c>
+      <c r="H455" s="21">
+        <f>G455-F455</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="7">
+        <v>44924</v>
+      </c>
+      <c r="B456" t="s">
+        <v>50</v>
+      </c>
+      <c r="C456" s="2">
+        <f>F455</f>
+        <v>41491.508225000071</v>
+      </c>
+      <c r="E456" s="2">
+        <v>88.18</v>
+      </c>
+      <c r="F456" s="3">
+        <f>C456+D456-E456</f>
+        <v>41403.32822500007</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="7">
+        <v>44924</v>
+      </c>
+      <c r="B457" t="s">
+        <v>43</v>
+      </c>
+      <c r="C457" s="2">
+        <f>F456</f>
+        <v>41403.32822500007</v>
+      </c>
+      <c r="E457" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F457" s="3">
+        <f>C457+D457-E457</f>
+        <v>41402.818225000068</v>
+      </c>
+      <c r="G457" s="3">
+        <v>41402.82</v>
+      </c>
+      <c r="H457" s="21">
+        <f>G457-F457</f>
+        <v>1.7749999315128662E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C458" s="2">
+        <f>F457</f>
+        <v>41402.818225000068</v>
+      </c>
+      <c r="F458" s="3">
+        <f>C458+D458-E458</f>
+        <v>41402.818225000068</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C459" s="2">
+        <f>F458</f>
+        <v>41402.818225000068</v>
+      </c>
+      <c r="F459" s="3">
+        <f>C459+D459-E459</f>
+        <v>41402.818225000068</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C460" s="2">
+        <f>F459</f>
+        <v>41402.818225000068</v>
+      </c>
+      <c r="F460" s="3">
+        <f>C460+D460-E460</f>
+        <v>41402.818225000068</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F263" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A231:I280">
-    <sortCondition ref="A280"/>
+  <autoFilter ref="A1:F342" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A456:I460">
+    <sortCondition ref="A460"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7036,22 +11560,22 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="23"/>
       <c r="K1" t="s">
         <v>24</v>
       </c>
@@ -8347,6 +12871,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -8771,6 +13296,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8981,6 +13507,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9088,6 +13615,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9169,11 +13697,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <f>SUM(B1:B5)</f>
         <v>480606.52000000008</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <f>SUM(C1:C5)</f>
         <v>566763.67000000004</v>
       </c>
@@ -9184,7 +13712,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -9208,4 +13736,595 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951E0BC4-E051-4299-882A-72F5BC900BEE}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>6.16</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>3080</v>
+      </c>
+      <c r="F2">
+        <v>7.08</v>
+      </c>
+      <c r="G2">
+        <f>F2*B2</f>
+        <v>3540</v>
+      </c>
+      <c r="H2">
+        <f>1.17*F2</f>
+        <v>8.2835999999999999</v>
+      </c>
+      <c r="I2">
+        <f>H2*B2</f>
+        <v>4141.8</v>
+      </c>
+      <c r="K2">
+        <f>(H2-F2)*500</f>
+        <v>601.79999999999984</v>
+      </c>
+      <c r="M2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>287.85000000000002</v>
+      </c>
+      <c r="G3">
+        <f>C3</f>
+        <v>287.85000000000002</v>
+      </c>
+      <c r="I3">
+        <f>G3</f>
+        <v>287.85000000000002</v>
+      </c>
+      <c r="M3">
+        <f>M2+C3</f>
+        <v>747.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>3827.85</v>
+      </c>
+      <c r="I4">
+        <f>SUM(I2:I3)</f>
+        <v>4429.6500000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f>G4/B2</f>
+        <v>7.6556999999999995</v>
+      </c>
+      <c r="I5">
+        <f>I4/B2</f>
+        <v>8.8593000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524D35C-7808-4DAF-867B-89BA56C63160}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3">
+        <v>87163.3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43683</v>
+      </c>
+      <c r="C2" s="3">
+        <v>39894</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2-C2</f>
+        <v>3789</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28505</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15063</v>
+      </c>
+      <c r="G2" s="3">
+        <f>E2-F2</f>
+        <v>13442</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K2">
+        <v>5000</v>
+      </c>
+      <c r="L2" s="3">
+        <f>I1+J2-K2</f>
+        <v>82163.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3">
+        <v>32753</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35203</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D8" si="0">B3-C3</f>
+        <v>-2450</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70671</v>
+      </c>
+      <c r="F3" s="3">
+        <v>46251</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G8" si="1">E3-F3</f>
+        <v>24420</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="3">
+        <f>L2+J3-K3</f>
+        <v>79663.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44234</v>
+      </c>
+      <c r="C4" s="3">
+        <v>47940</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>-3706</v>
+      </c>
+      <c r="E4" s="3">
+        <v>37746</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50523</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>-12777</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K4">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="3">
+        <f>L3+J4-K4</f>
+        <v>74663.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3">
+        <v>61865</v>
+      </c>
+      <c r="C5" s="3">
+        <v>52942</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>8923</v>
+      </c>
+      <c r="E5" s="3">
+        <v>53296</v>
+      </c>
+      <c r="F5" s="3">
+        <v>33763</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>19533</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K5" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L13" si="2">L4+J5-K5</f>
+        <v>65163.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36209</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36184</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>103537</v>
+      </c>
+      <c r="F6" s="3">
+        <v>72864</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>30673</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="2"/>
+        <v>60163.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39179</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41966</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>-2787</v>
+      </c>
+      <c r="E7" s="3">
+        <v>22105</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49890</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>-27785</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
+        <v>51163.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12872</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6839</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>6033</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15932</v>
+      </c>
+      <c r="F8" s="3">
+        <v>28429</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>-12497</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="L10" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>46663.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <f t="shared" ref="B14:H14" si="3">SUM(B2:B13)</f>
+        <v>270795</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="3"/>
+        <v>260968</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="3"/>
+        <v>9827</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>331792</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>296783</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>35009</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>-45000</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <f>SUM(J2:J13)</f>
+        <v>6500</v>
+      </c>
+      <c r="K14" s="3">
+        <f>SUM(K2:K13)</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>K14-J14</f>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f>F21*(1+G22)</f>
+        <v>120</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f>F22*(1+G23)</f>
+        <v>140.39999999999998</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f>F23*1.19</f>
+        <v>167.07599999999996</v>
+      </c>
+      <c r="I24">
+        <f>F23-F21+F26</f>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <f>I24/F24</f>
+        <v>0.11970600205894326</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f>F22-F23</f>
+        <v>-20.399999999999977</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>